--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0411CC4C-C7F8-4E8F-ACB0-467AFCE7A4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89517AB0-0ED4-4455-9269-5A7AD64B8464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9620,7 +9620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C516A6-61BE-4AA9-B358-534E904C6C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515238F-AEB0-4E88-B9F8-211C2293A784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9659,7 +9659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1291FEB-7055-4A12-A36A-326F308FCF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C0DDA9-D2A2-472F-9CBB-731DCECF6881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9704,7 +9704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C0DDA9-D2A2-472F-9CBB-731DCECF6881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A9A81A-8E9D-46DA-8370-5F8CCDACC9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9704,7 +9704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528ABD42-9D20-4E33-889A-CE3E1597BD8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2277E5-AAA1-4625-A7F6-50D307F794E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9719,7 +9719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165C3A16-B0C9-42A5-B931-3B5C6B5C9384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4174CE-49A9-439E-A14D-2EF6046080BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9831,7 +9831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4174CE-49A9-439E-A14D-2EF6046080BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2A294-5548-4915-926F-7DE2D9D95A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9831,7 +9831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54669,7 +54669,7 @@
         <v>2853</v>
       </c>
       <c r="D2120" s="4">
-        <v>4301051861</v>
+        <v>4301051863</v>
       </c>
       <c r="E2120" s="3">
         <v>4680115885905</v>
@@ -55748,19 +55748,19 @@
       <c r="A2168" s="24" t="s">
         <v>2875</v>
       </c>
-      <c r="B2168" s="20" t="s">
+      <c r="B2168" s="3" t="s">
         <v>2852</v>
       </c>
-      <c r="C2168" s="20" t="s">
+      <c r="C2168" s="3" t="s">
         <v>2853</v>
       </c>
-      <c r="D2168" s="21">
-        <v>4301051861</v>
-      </c>
-      <c r="E2168" s="20">
+      <c r="D2168" s="4">
+        <v>4301051863</v>
+      </c>
+      <c r="E2168" s="3">
         <v>4680115885905</v>
       </c>
-      <c r="F2168" s="22" t="s">
+      <c r="F2168" s="5" t="s">
         <v>2854</v>
       </c>
       <c r="G2168" s="23" t="s">

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C8B12-B881-4BFE-A5DB-31EF086F6C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D649403-5208-46E0-8D1F-26BEC23C91B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2270</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9358" uniqueCount="3104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9362" uniqueCount="3107">
   <si>
     <t>SU002447</t>
   </si>
@@ -9346,6 +9346,15 @@
   </si>
   <si>
     <t>279  Колбаса Докторский гарант, Вязанка вектор, 0,4 кг.  ПОКОМ, шт</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Докторская Стародворская» Весовой п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU001777</t>
+  </si>
+  <si>
+    <t>P004919</t>
   </si>
 </sst>
 </file>
@@ -9878,11 +9887,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G2269"/>
+  <dimension ref="A1:G2270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54023,7 +54032,7 @@
       </c>
       <c r="G2087" s="16"/>
     </row>
-    <row r="2088" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2088" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2088" s="6" t="s">
         <v>3096</v>
       </c>
@@ -56153,69 +56162,67 @@
       <c r="G2184" s="16"/>
     </row>
     <row r="2185" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2185" s="24" t="s">
-        <v>2875</v>
+      <c r="A2185" s="6" t="s">
+        <v>3104</v>
       </c>
       <c r="B2185" s="3" t="s">
-        <v>2852</v>
+        <v>3105</v>
       </c>
       <c r="C2185" s="3" t="s">
-        <v>2853</v>
+        <v>3106</v>
       </c>
       <c r="D2185" s="4">
-        <v>4301051863</v>
+        <v>4301012126</v>
       </c>
       <c r="E2185" s="3">
-        <v>4680115885905</v>
+        <v>4607091386004</v>
       </c>
       <c r="F2185" s="5" t="s">
-        <v>2854</v>
-      </c>
-      <c r="G2185" s="23" t="s">
-        <v>2851</v>
-      </c>
+        <v>3104</v>
+      </c>
+      <c r="G2185" s="16"/>
     </row>
     <row r="2186" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2186" s="24" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B2186" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2186" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2186" s="21">
-        <v>4301011382</v>
-      </c>
-      <c r="E2186" s="20">
-        <v>4607091385687</v>
-      </c>
-      <c r="F2186" s="22" t="s">
-        <v>69</v>
+        <v>2875</v>
+      </c>
+      <c r="B2186" s="3" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C2186" s="3" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D2186" s="4">
+        <v>4301051863</v>
+      </c>
+      <c r="E2186" s="3">
+        <v>4680115885905</v>
+      </c>
+      <c r="F2186" s="5" t="s">
+        <v>2854</v>
       </c>
       <c r="G2186" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2187" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2187" s="24" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B2187" s="20" t="s">
-        <v>1890</v>
+        <v>50</v>
       </c>
       <c r="C2187" s="20" t="s">
-        <v>2115</v>
+        <v>51</v>
       </c>
       <c r="D2187" s="21">
-        <v>4301051820</v>
+        <v>4301011382</v>
       </c>
       <c r="E2187" s="20">
-        <v>4680115884915</v>
+        <v>4607091385687</v>
       </c>
       <c r="F2187" s="22" t="s">
-        <v>1891</v>
+        <v>69</v>
       </c>
       <c r="G2187" s="23" t="s">
         <v>2851</v>
@@ -56223,22 +56230,22 @@
     </row>
     <row r="2188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2188" s="24" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B2188" s="20" t="s">
-        <v>32</v>
+        <v>1890</v>
       </c>
       <c r="C2188" s="20" t="s">
-        <v>33</v>
+        <v>2115</v>
       </c>
       <c r="D2188" s="21">
-        <v>4301020296</v>
+        <v>4301051820</v>
       </c>
       <c r="E2188" s="20">
-        <v>4680115881433</v>
+        <v>4680115884915</v>
       </c>
       <c r="F2188" s="22" t="s">
-        <v>35</v>
+        <v>1891</v>
       </c>
       <c r="G2188" s="23" t="s">
         <v>2851</v>
@@ -56246,22 +56253,22 @@
     </row>
     <row r="2189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2189" s="24" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B2189" s="20" t="s">
-        <v>1893</v>
+        <v>32</v>
       </c>
       <c r="C2189" s="20" t="s">
-        <v>2116</v>
+        <v>33</v>
       </c>
       <c r="D2189" s="21">
-        <v>4301051837</v>
+        <v>4301020296</v>
       </c>
       <c r="E2189" s="20">
-        <v>4680115884311</v>
+        <v>4680115881433</v>
       </c>
       <c r="F2189" s="22" t="s">
-        <v>1894</v>
+        <v>35</v>
       </c>
       <c r="G2189" s="23" t="s">
         <v>2851</v>
@@ -56269,68 +56276,68 @@
     </row>
     <row r="2190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2190" s="24" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B2190" s="20" t="s">
-        <v>2732</v>
+        <v>1893</v>
       </c>
       <c r="C2190" s="20" t="s">
-        <v>2733</v>
+        <v>2116</v>
       </c>
       <c r="D2190" s="21">
-        <v>4301051929</v>
+        <v>4301051837</v>
       </c>
       <c r="E2190" s="20">
-        <v>4680115884403</v>
+        <v>4680115884311</v>
       </c>
       <c r="F2190" s="22" t="s">
-        <v>2734</v>
+        <v>1894</v>
       </c>
       <c r="G2190" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2191" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2191" s="24" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B2191" s="20" t="s">
-        <v>1389</v>
+        <v>2732</v>
       </c>
       <c r="C2191" s="20" t="s">
-        <v>1390</v>
+        <v>2733</v>
       </c>
       <c r="D2191" s="21">
-        <v>4301060351</v>
+        <v>4301051929</v>
       </c>
       <c r="E2191" s="20">
-        <v>4680115881464</v>
+        <v>4680115884403</v>
       </c>
       <c r="F2191" s="22" t="s">
-        <v>1391</v>
+        <v>2734</v>
       </c>
       <c r="G2191" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2192" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2192" s="24" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B2192" s="20" t="s">
-        <v>1932</v>
+        <v>1389</v>
       </c>
       <c r="C2192" s="20" t="s">
-        <v>1933</v>
+        <v>1390</v>
       </c>
       <c r="D2192" s="21">
-        <v>4301051740</v>
+        <v>4301060351</v>
       </c>
       <c r="E2192" s="20">
-        <v>4680115884533</v>
+        <v>4680115881464</v>
       </c>
       <c r="F2192" s="22" t="s">
-        <v>1934</v>
+        <v>1391</v>
       </c>
       <c r="G2192" s="23" t="s">
         <v>2851</v>
@@ -56338,45 +56345,45 @@
     </row>
     <row r="2193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2193" s="24" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B2193" s="20" t="s">
-        <v>128</v>
+        <v>1932</v>
       </c>
       <c r="C2193" s="20" t="s">
-        <v>129</v>
+        <v>1933</v>
       </c>
       <c r="D2193" s="21">
-        <v>4301060317</v>
+        <v>4301051740</v>
       </c>
       <c r="E2193" s="20">
-        <v>4680115880238</v>
+        <v>4680115884533</v>
       </c>
       <c r="F2193" s="22" t="s">
-        <v>2591</v>
+        <v>1934</v>
       </c>
       <c r="G2193" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2194" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2194" s="24" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B2194" s="20" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="C2194" s="20" t="s">
-        <v>2062</v>
+        <v>129</v>
       </c>
       <c r="D2194" s="21">
-        <v>4301051666</v>
+        <v>4301060317</v>
       </c>
       <c r="E2194" s="20">
-        <v>4680115880092</v>
+        <v>4680115880238</v>
       </c>
       <c r="F2194" s="22" t="s">
-        <v>2063</v>
+        <v>2591</v>
       </c>
       <c r="G2194" s="23" t="s">
         <v>2851</v>
@@ -56384,22 +56391,22 @@
     </row>
     <row r="2195" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2195" s="24" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B2195" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2195" s="20" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D2195" s="21">
-        <v>4301051668</v>
+        <v>4301051666</v>
       </c>
       <c r="E2195" s="20">
-        <v>4680115880221</v>
+        <v>4680115880092</v>
       </c>
       <c r="F2195" s="22" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="G2195" s="23" t="s">
         <v>2851</v>
@@ -56407,22 +56414,22 @@
     </row>
     <row r="2196" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2196" s="24" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B2196" s="20" t="s">
-        <v>1774</v>
+        <v>240</v>
       </c>
       <c r="C2196" s="20" t="s">
-        <v>1775</v>
+        <v>2064</v>
       </c>
       <c r="D2196" s="21">
-        <v>4301011824</v>
+        <v>4301051668</v>
       </c>
       <c r="E2196" s="20">
-        <v>4680115884144</v>
+        <v>4680115880221</v>
       </c>
       <c r="F2196" s="22" t="s">
-        <v>1773</v>
+        <v>2065</v>
       </c>
       <c r="G2196" s="23" t="s">
         <v>2851</v>
@@ -56430,22 +56437,22 @@
     </row>
     <row r="2197" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2197" s="24" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="B2197" s="20" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="C2197" s="20" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="D2197" s="21">
-        <v>4301011722</v>
+        <v>4301011824</v>
       </c>
       <c r="E2197" s="20">
-        <v>4680115884205</v>
+        <v>4680115884144</v>
       </c>
       <c r="F2197" s="22" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G2197" s="23" t="s">
         <v>2851</v>
@@ -56453,22 +56460,22 @@
     </row>
     <row r="2198" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2198" s="24" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B2198" s="20" t="s">
-        <v>2240</v>
+        <v>1771</v>
       </c>
       <c r="C2198" s="20" t="s">
-        <v>2241</v>
+        <v>1772</v>
       </c>
       <c r="D2198" s="21">
-        <v>4301011851</v>
+        <v>4301011722</v>
       </c>
       <c r="E2198" s="20">
-        <v>4680115885820</v>
+        <v>4680115884205</v>
       </c>
       <c r="F2198" s="22" t="s">
-        <v>2242</v>
+        <v>1770</v>
       </c>
       <c r="G2198" s="23" t="s">
         <v>2851</v>
@@ -56476,22 +56483,22 @@
     </row>
     <row r="2199" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2199" s="24" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B2199" s="20" t="s">
-        <v>230</v>
+        <v>2240</v>
       </c>
       <c r="C2199" s="20" t="s">
-        <v>1166</v>
+        <v>2241</v>
       </c>
       <c r="D2199" s="21">
-        <v>4301051795</v>
+        <v>4301011851</v>
       </c>
       <c r="E2199" s="20">
-        <v>4680115881228</v>
+        <v>4680115885820</v>
       </c>
       <c r="F2199" s="22" t="s">
-        <v>1167</v>
+        <v>2242</v>
       </c>
       <c r="G2199" s="23" t="s">
         <v>2851</v>
@@ -56499,68 +56506,68 @@
     </row>
     <row r="2200" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2200" s="24" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B2200" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2200" s="20" t="s">
-        <v>232</v>
+        <v>1166</v>
       </c>
       <c r="D2200" s="21">
-        <v>4301051388</v>
+        <v>4301051795</v>
       </c>
       <c r="E2200" s="20">
-        <v>4680115881211</v>
+        <v>4680115881228</v>
       </c>
       <c r="F2200" s="22" t="s">
-        <v>252</v>
+        <v>1167</v>
       </c>
       <c r="G2200" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2201" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2201" s="24" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B2201" s="20" t="s">
-        <v>2600</v>
+        <v>231</v>
       </c>
       <c r="C2201" s="20" t="s">
-        <v>2601</v>
+        <v>232</v>
       </c>
       <c r="D2201" s="21">
-        <v>4301051782</v>
+        <v>4301051388</v>
       </c>
       <c r="E2201" s="20">
-        <v>4680115884618</v>
+        <v>4680115881211</v>
       </c>
       <c r="F2201" s="22" t="s">
-        <v>2602</v>
+        <v>252</v>
       </c>
       <c r="G2201" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2202" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2202" s="24" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B2202" s="20" t="s">
-        <v>193</v>
+        <v>2600</v>
       </c>
       <c r="C2202" s="20" t="s">
-        <v>2118</v>
+        <v>2601</v>
       </c>
       <c r="D2202" s="21">
-        <v>4301031305</v>
+        <v>4301051782</v>
       </c>
       <c r="E2202" s="20">
-        <v>4607091389845</v>
+        <v>4680115884618</v>
       </c>
       <c r="F2202" s="22" t="s">
-        <v>208</v>
+        <v>2602</v>
       </c>
       <c r="G2202" s="23" t="s">
         <v>2851</v>
@@ -56568,22 +56575,22 @@
     </row>
     <row r="2203" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2203" s="24" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B2203" s="20" t="s">
-        <v>2181</v>
+        <v>193</v>
       </c>
       <c r="C2203" s="20" t="s">
-        <v>2182</v>
+        <v>2118</v>
       </c>
       <c r="D2203" s="21">
-        <v>4301011859</v>
+        <v>4301031305</v>
       </c>
       <c r="E2203" s="20">
-        <v>4680115885608</v>
+        <v>4607091389845</v>
       </c>
       <c r="F2203" s="22" t="s">
-        <v>2183</v>
+        <v>208</v>
       </c>
       <c r="G2203" s="23" t="s">
         <v>2851</v>
@@ -56591,68 +56598,68 @@
     </row>
     <row r="2204" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2204" s="24" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B2204" s="20" t="s">
-        <v>311</v>
+        <v>2181</v>
       </c>
       <c r="C2204" s="20" t="s">
-        <v>312</v>
+        <v>2182</v>
       </c>
       <c r="D2204" s="21">
-        <v>4301031066</v>
+        <v>4301011859</v>
       </c>
       <c r="E2204" s="20">
-        <v>4607091383836</v>
+        <v>4680115885608</v>
       </c>
       <c r="F2204" s="22" t="s">
-        <v>314</v>
+        <v>2183</v>
       </c>
       <c r="G2204" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2205" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2205" s="24" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B2205" s="20" t="s">
-        <v>1518</v>
+        <v>311</v>
       </c>
       <c r="C2205" s="20" t="s">
-        <v>1519</v>
+        <v>312</v>
       </c>
       <c r="D2205" s="21">
-        <v>4301051461</v>
+        <v>4301031066</v>
       </c>
       <c r="E2205" s="20">
-        <v>4680115883604</v>
+        <v>4607091383836</v>
       </c>
       <c r="F2205" s="22" t="s">
-        <v>1520</v>
+        <v>314</v>
       </c>
       <c r="G2205" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2206" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2206" s="24" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B2206" s="20" t="s">
-        <v>1478</v>
+        <v>1518</v>
       </c>
       <c r="C2206" s="20" t="s">
-        <v>1479</v>
+        <v>1519</v>
       </c>
       <c r="D2206" s="21">
-        <v>4301051864</v>
+        <v>4301051461</v>
       </c>
       <c r="E2206" s="20">
-        <v>4680115883567</v>
+        <v>4680115883604</v>
       </c>
       <c r="F2206" s="22" t="s">
-        <v>1480</v>
+        <v>1520</v>
       </c>
       <c r="G2206" s="23" t="s">
         <v>2851</v>
@@ -56660,22 +56667,22 @@
     </row>
     <row r="2207" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2207" s="24" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B2207" s="20" t="s">
-        <v>2128</v>
+        <v>1478</v>
       </c>
       <c r="C2207" s="20" t="s">
-        <v>2129</v>
+        <v>1479</v>
       </c>
       <c r="D2207" s="21">
-        <v>4301011868</v>
+        <v>4301051864</v>
       </c>
       <c r="E2207" s="20">
-        <v>4680115884861</v>
+        <v>4680115883567</v>
       </c>
       <c r="F2207" s="22" t="s">
-        <v>2130</v>
+        <v>1480</v>
       </c>
       <c r="G2207" s="23" t="s">
         <v>2851</v>
@@ -56683,45 +56690,45 @@
     </row>
     <row r="2208" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2208" s="24" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B2208" s="20" t="s">
-        <v>366</v>
+        <v>2128</v>
       </c>
       <c r="C2208" s="20" t="s">
-        <v>2590</v>
+        <v>2129</v>
       </c>
       <c r="D2208" s="21">
-        <v>4301031362</v>
+        <v>4301011868</v>
       </c>
       <c r="E2208" s="20">
-        <v>4607091384338</v>
+        <v>4680115884861</v>
       </c>
       <c r="F2208" s="22" t="s">
-        <v>373</v>
+        <v>2130</v>
       </c>
       <c r="G2208" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2209" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2209" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2209" s="24" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B2209" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2209" s="20" t="s">
-        <v>2652</v>
+        <v>2590</v>
       </c>
       <c r="D2209" s="21">
-        <v>4301031361</v>
+        <v>4301031362</v>
       </c>
       <c r="E2209" s="20">
-        <v>4607091389524</v>
+        <v>4607091384338</v>
       </c>
       <c r="F2209" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G2209" s="23" t="s">
         <v>2851</v>
@@ -56729,45 +56736,45 @@
     </row>
     <row r="2210" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2210" s="24" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B2210" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C2210" s="20" t="s">
-        <v>2274</v>
+        <v>2652</v>
       </c>
       <c r="D2210" s="21">
-        <v>4301031358</v>
+        <v>4301031361</v>
       </c>
       <c r="E2210" s="20">
-        <v>4607091389531</v>
+        <v>4607091389524</v>
       </c>
       <c r="F2210" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G2210" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="2211" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2211" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2211" s="24" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B2211" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C2211" s="20" t="s">
-        <v>2248</v>
+        <v>2274</v>
       </c>
       <c r="D2211" s="21">
-        <v>4301031360</v>
+        <v>4301031358</v>
       </c>
       <c r="E2211" s="20">
-        <v>4607091384345</v>
+        <v>4607091389531</v>
       </c>
       <c r="F2211" s="22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G2211" s="23" t="s">
         <v>2851</v>
@@ -56775,22 +56782,22 @@
     </row>
     <row r="2212" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2212" s="24" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B2212" s="20" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C2212" s="20" t="s">
-        <v>382</v>
+        <v>2248</v>
       </c>
       <c r="D2212" s="21">
-        <v>4301051284</v>
+        <v>4301031360</v>
       </c>
       <c r="E2212" s="20">
-        <v>4607091384352</v>
+        <v>4607091384345</v>
       </c>
       <c r="F2212" s="22" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G2212" s="23" t="s">
         <v>2851</v>
@@ -56798,22 +56805,22 @@
     </row>
     <row r="2213" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2213" s="24" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B2213" s="20" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C2213" s="20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D2213" s="21">
-        <v>4301051431</v>
+        <v>4301051284</v>
       </c>
       <c r="E2213" s="20">
-        <v>4607091389654</v>
+        <v>4607091384352</v>
       </c>
       <c r="F2213" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G2213" s="23" t="s">
         <v>2851</v>
@@ -56821,22 +56828,22 @@
     </row>
     <row r="2214" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2214" s="24" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B2214" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C2214" s="3" t="s">
-        <v>3057</v>
-      </c>
-      <c r="D2214" s="4">
-        <v>4301012034</v>
-      </c>
-      <c r="E2214" s="3">
-        <v>4607091389982</v>
-      </c>
-      <c r="F2214" s="5" t="s">
-        <v>1043</v>
+        <v>2903</v>
+      </c>
+      <c r="B2214" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2214" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2214" s="21">
+        <v>4301051431</v>
+      </c>
+      <c r="E2214" s="20">
+        <v>4607091389654</v>
+      </c>
+      <c r="F2214" s="22" t="s">
+        <v>386</v>
       </c>
       <c r="G2214" s="23" t="s">
         <v>2851</v>
@@ -56844,22 +56851,22 @@
     </row>
     <row r="2215" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2215" s="24" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B2215" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2215" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="D2215" s="21">
-        <v>4301020179</v>
-      </c>
-      <c r="E2215" s="20">
-        <v>4607091384178</v>
-      </c>
-      <c r="F2215" s="22" t="s">
-        <v>335</v>
+        <v>2904</v>
+      </c>
+      <c r="B2215" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C2215" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D2215" s="4">
+        <v>4301012034</v>
+      </c>
+      <c r="E2215" s="3">
+        <v>4607091389982</v>
+      </c>
+      <c r="F2215" s="5" t="s">
+        <v>1043</v>
       </c>
       <c r="G2215" s="23" t="s">
         <v>2851</v>
@@ -56867,137 +56874,137 @@
     </row>
     <row r="2216" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2216" s="24" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B2216" s="20" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="C2216" s="20" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="D2216" s="21">
-        <v>4301180001</v>
+        <v>4301020179</v>
       </c>
       <c r="E2216" s="20">
-        <v>4680115880016</v>
+        <v>4607091384178</v>
       </c>
       <c r="F2216" s="22" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="G2216" s="23" t="s">
         <v>2851</v>
       </c>
     </row>
     <row r="2217" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2217" s="25" t="s">
-        <v>2917</v>
-      </c>
-      <c r="B2217" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2217" s="26" t="s">
-        <v>2543</v>
-      </c>
-      <c r="D2217" s="27">
-        <v>4301031403</v>
-      </c>
-      <c r="E2217" s="26">
-        <v>4680115886094</v>
-      </c>
-      <c r="F2217" s="28" t="s">
-        <v>2544</v>
-      </c>
-      <c r="G2217" s="29" t="s">
-        <v>2970</v>
+      <c r="A2217" s="24" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B2217" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2217" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2217" s="21">
+        <v>4301180001</v>
+      </c>
+      <c r="E2217" s="20">
+        <v>4680115880016</v>
+      </c>
+      <c r="F2217" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2217" s="23" t="s">
+        <v>2851</v>
       </c>
     </row>
     <row r="2218" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2218" s="25" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B2218" s="26" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="C2218" s="26" t="s">
-        <v>2656</v>
+        <v>2543</v>
       </c>
       <c r="D2218" s="27">
-        <v>4301031402</v>
+        <v>4301031403</v>
       </c>
       <c r="E2218" s="26">
-        <v>4680115886124</v>
+        <v>4680115886094</v>
       </c>
       <c r="F2218" s="28" t="s">
-        <v>2657</v>
+        <v>2544</v>
       </c>
       <c r="G2218" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2219" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2219" s="25" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B2219" s="26" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="C2219" s="26" t="s">
-        <v>2788</v>
+        <v>2656</v>
       </c>
       <c r="D2219" s="27">
-        <v>4301020334</v>
+        <v>4301031402</v>
       </c>
       <c r="E2219" s="26">
-        <v>4607091388930</v>
+        <v>4680115886124</v>
       </c>
       <c r="F2219" s="28" t="s">
-        <v>413</v>
+        <v>2657</v>
       </c>
       <c r="G2219" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2220" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2220" s="25" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B2220" s="26" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="C2220" s="26" t="s">
-        <v>331</v>
+        <v>2788</v>
       </c>
       <c r="D2220" s="27">
-        <v>4301020178</v>
+        <v>4301020334</v>
       </c>
       <c r="E2220" s="26">
-        <v>4607091383980</v>
+        <v>4607091388930</v>
       </c>
       <c r="F2220" s="28" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="G2220" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2221" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2221" s="25" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B2221" s="26" t="s">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="C2221" s="26" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="D2221" s="27">
-        <v>4301020298</v>
+        <v>4301020178</v>
       </c>
       <c r="E2221" s="26">
-        <v>4680115881440</v>
+        <v>4607091383980</v>
       </c>
       <c r="F2221" s="28" t="s">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="G2221" s="29" t="s">
         <v>2970</v>
@@ -57005,45 +57012,45 @@
     </row>
     <row r="2222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2222" s="25" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B2222" s="26" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C2222" s="26" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D2222" s="27">
-        <v>4301011468</v>
+        <v>4301020298</v>
       </c>
       <c r="E2222" s="26">
-        <v>4680115881327</v>
+        <v>4680115881440</v>
       </c>
       <c r="F2222" s="28" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G2222" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2223" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2223" s="25" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B2223" s="26" t="s">
-        <v>2642</v>
+        <v>43</v>
       </c>
       <c r="C2223" s="26" t="s">
-        <v>2643</v>
+        <v>44</v>
       </c>
       <c r="D2223" s="27">
-        <v>4301012030</v>
+        <v>4301011468</v>
       </c>
       <c r="E2223" s="26">
-        <v>4680115885882</v>
+        <v>4680115881327</v>
       </c>
       <c r="F2223" s="28" t="s">
-        <v>2644</v>
+        <v>65</v>
       </c>
       <c r="G2223" s="29" t="s">
         <v>2970</v>
@@ -57051,22 +57058,22 @@
     </row>
     <row r="2224" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2224" s="25" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B2224" s="26" t="s">
-        <v>36</v>
+        <v>2642</v>
       </c>
       <c r="C2224" s="26" t="s">
-        <v>37</v>
+        <v>2643</v>
       </c>
       <c r="D2224" s="27">
-        <v>4301011816</v>
+        <v>4301012030</v>
       </c>
       <c r="E2224" s="26">
-        <v>4680115881426</v>
+        <v>4680115885882</v>
       </c>
       <c r="F2224" s="28" t="s">
-        <v>40</v>
+        <v>2644</v>
       </c>
       <c r="G2224" s="29" t="s">
         <v>2970</v>
@@ -57074,22 +57081,22 @@
     </row>
     <row r="2225" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2225" s="25" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B2225" s="26" t="s">
-        <v>2071</v>
+        <v>36</v>
       </c>
       <c r="C2225" s="26" t="s">
-        <v>2072</v>
+        <v>37</v>
       </c>
       <c r="D2225" s="27">
-        <v>4301011867</v>
+        <v>4301011816</v>
       </c>
       <c r="E2225" s="26">
-        <v>4680115884830</v>
+        <v>4680115881426</v>
       </c>
       <c r="F2225" s="28" t="s">
-        <v>2073</v>
+        <v>40</v>
       </c>
       <c r="G2225" s="29" t="s">
         <v>2970</v>
@@ -57097,22 +57104,22 @@
     </row>
     <row r="2226" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2226" s="25" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B2226" s="26" t="s">
-        <v>42</v>
+        <v>2071</v>
       </c>
       <c r="C2226" s="26" t="s">
-        <v>2103</v>
+        <v>2072</v>
       </c>
       <c r="D2226" s="27">
-        <v>4301011380</v>
+        <v>4301011867</v>
       </c>
       <c r="E2226" s="26">
-        <v>4607091385670</v>
+        <v>4680115884830</v>
       </c>
       <c r="F2226" s="28" t="s">
-        <v>64</v>
+        <v>2073</v>
       </c>
       <c r="G2226" s="29" t="s">
         <v>2970</v>
@@ -57120,22 +57127,22 @@
     </row>
     <row r="2227" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2227" s="25" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B2227" s="26" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="C2227" s="26" t="s">
-        <v>1818</v>
+        <v>2103</v>
       </c>
       <c r="D2227" s="27">
-        <v>4301011795</v>
+        <v>4301011380</v>
       </c>
       <c r="E2227" s="26">
-        <v>4607091389067</v>
+        <v>4607091385670</v>
       </c>
       <c r="F2227" s="28" t="s">
-        <v>406</v>
+        <v>64</v>
       </c>
       <c r="G2227" s="29" t="s">
         <v>2970</v>
@@ -57143,22 +57150,22 @@
     </row>
     <row r="2228" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2228" s="25" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B2228" s="26" t="s">
-        <v>2225</v>
+        <v>401</v>
       </c>
       <c r="C2228" s="26" t="s">
-        <v>2226</v>
+        <v>1818</v>
       </c>
       <c r="D2228" s="27">
-        <v>4301011875</v>
+        <v>4301011795</v>
       </c>
       <c r="E2228" s="26">
-        <v>4680115884885</v>
+        <v>4607091389067</v>
       </c>
       <c r="F2228" s="28" t="s">
-        <v>2227</v>
+        <v>406</v>
       </c>
       <c r="G2228" s="29" t="s">
         <v>2970</v>
@@ -57166,22 +57173,22 @@
     </row>
     <row r="2229" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2229" s="25" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B2229" s="26" t="s">
-        <v>2123</v>
+        <v>2225</v>
       </c>
       <c r="C2229" s="26" t="s">
-        <v>2124</v>
+        <v>2226</v>
       </c>
       <c r="D2229" s="27">
-        <v>4301011376</v>
+        <v>4301011875</v>
       </c>
       <c r="E2229" s="26">
-        <v>4680115885226</v>
+        <v>4680115884885</v>
       </c>
       <c r="F2229" s="28" t="s">
-        <v>2125</v>
+        <v>2227</v>
       </c>
       <c r="G2229" s="29" t="s">
         <v>2970</v>
@@ -57189,22 +57196,22 @@
     </row>
     <row r="2230" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2230" s="25" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B2230" s="26" t="s">
-        <v>402</v>
+        <v>2123</v>
       </c>
       <c r="C2230" s="26" t="s">
-        <v>2112</v>
+        <v>2124</v>
       </c>
       <c r="D2230" s="27">
-        <v>4301011961</v>
+        <v>4301011376</v>
       </c>
       <c r="E2230" s="26">
-        <v>4680115885271</v>
+        <v>4680115885226</v>
       </c>
       <c r="F2230" s="28" t="s">
-        <v>2113</v>
+        <v>2125</v>
       </c>
       <c r="G2230" s="29" t="s">
         <v>2970</v>
@@ -57212,22 +57219,22 @@
     </row>
     <row r="2231" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2231" s="25" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B2231" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C2231" s="26" t="s">
-        <v>1814</v>
+        <v>2112</v>
       </c>
       <c r="D2231" s="27">
-        <v>4301011771</v>
+        <v>4301011961</v>
       </c>
       <c r="E2231" s="26">
-        <v>4607091389104</v>
+        <v>4680115885271</v>
       </c>
       <c r="F2231" s="28" t="s">
-        <v>1815</v>
+        <v>2113</v>
       </c>
       <c r="G2231" s="29" t="s">
         <v>2970</v>
@@ -57235,22 +57242,22 @@
     </row>
     <row r="2232" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2232" s="25" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B2232" s="26" t="s">
-        <v>1953</v>
+        <v>403</v>
       </c>
       <c r="C2232" s="26" t="s">
-        <v>1954</v>
+        <v>1814</v>
       </c>
       <c r="D2232" s="27">
-        <v>4301011869</v>
+        <v>4301011771</v>
       </c>
       <c r="E2232" s="26">
-        <v>4680115884847</v>
+        <v>4607091389104</v>
       </c>
       <c r="F2232" s="28" t="s">
-        <v>1955</v>
+        <v>1815</v>
       </c>
       <c r="G2232" s="29" t="s">
         <v>2970</v>
@@ -57258,22 +57265,22 @@
     </row>
     <row r="2233" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2233" s="25" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B2233" s="26" t="s">
-        <v>181</v>
+        <v>1953</v>
       </c>
       <c r="C2233" s="26" t="s">
-        <v>182</v>
+        <v>1954</v>
       </c>
       <c r="D2233" s="27">
-        <v>4301031191</v>
+        <v>4301011869</v>
       </c>
       <c r="E2233" s="26">
-        <v>4680115880993</v>
+        <v>4680115884847</v>
       </c>
       <c r="F2233" s="28" t="s">
-        <v>202</v>
+        <v>1955</v>
       </c>
       <c r="G2233" s="29" t="s">
         <v>2970</v>
@@ -57281,22 +57288,22 @@
     </row>
     <row r="2234" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2234" s="25" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B2234" s="26" t="s">
-        <v>428</v>
+        <v>181</v>
       </c>
       <c r="C2234" s="26" t="s">
-        <v>1247</v>
+        <v>182</v>
       </c>
       <c r="D2234" s="27">
-        <v>4301011584</v>
+        <v>4301031191</v>
       </c>
       <c r="E2234" s="26">
-        <v>4640242180564</v>
+        <v>4680115880993</v>
       </c>
       <c r="F2234" s="28" t="s">
-        <v>1248</v>
+        <v>202</v>
       </c>
       <c r="G2234" s="29" t="s">
         <v>2970</v>
@@ -57304,22 +57311,22 @@
     </row>
     <row r="2235" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2235" s="25" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B2235" s="26" t="s">
-        <v>1940</v>
+        <v>428</v>
       </c>
       <c r="C2235" s="26" t="s">
-        <v>1941</v>
+        <v>1247</v>
       </c>
       <c r="D2235" s="27">
-        <v>4301011870</v>
+        <v>4301011584</v>
       </c>
       <c r="E2235" s="26">
-        <v>4680115884854</v>
+        <v>4640242180564</v>
       </c>
       <c r="F2235" s="28" t="s">
-        <v>1942</v>
+        <v>1248</v>
       </c>
       <c r="G2235" s="29" t="s">
         <v>2970</v>
@@ -57327,68 +57334,68 @@
     </row>
     <row r="2236" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2236" s="25" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B2236" s="26" t="s">
-        <v>416</v>
+        <v>1940</v>
       </c>
       <c r="C2236" s="26" t="s">
-        <v>2574</v>
+        <v>1941</v>
       </c>
       <c r="D2236" s="27">
-        <v>4301031349</v>
+        <v>4301011870</v>
       </c>
       <c r="E2236" s="26">
-        <v>4680115883116</v>
+        <v>4680115884854</v>
       </c>
       <c r="F2236" s="28" t="s">
-        <v>2575</v>
+        <v>1942</v>
       </c>
       <c r="G2236" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2237" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2237" s="25" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B2237" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C2237" s="26" t="s">
-        <v>2638</v>
+        <v>2574</v>
       </c>
       <c r="D2237" s="27">
-        <v>4301031350</v>
+        <v>4301031349</v>
       </c>
       <c r="E2237" s="26">
-        <v>4680115883093</v>
+        <v>4680115883116</v>
       </c>
       <c r="F2237" s="28" t="s">
-        <v>2639</v>
+        <v>2575</v>
       </c>
       <c r="G2237" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2238" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2238" s="25" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="B2238" s="26" t="s">
-        <v>183</v>
+        <v>417</v>
       </c>
       <c r="C2238" s="26" t="s">
-        <v>184</v>
+        <v>2638</v>
       </c>
       <c r="D2238" s="27">
-        <v>4301031204</v>
+        <v>4301031350</v>
       </c>
       <c r="E2238" s="26">
-        <v>4680115881761</v>
+        <v>4680115883093</v>
       </c>
       <c r="F2238" s="28" t="s">
-        <v>203</v>
+        <v>2639</v>
       </c>
       <c r="G2238" s="29" t="s">
         <v>2970</v>
@@ -57396,22 +57403,22 @@
     </row>
     <row r="2239" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2239" s="25" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="B2239" s="26" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="C2239" s="26" t="s">
-        <v>2554</v>
+        <v>184</v>
       </c>
       <c r="D2239" s="27">
-        <v>4301031405</v>
+        <v>4301031204</v>
       </c>
       <c r="E2239" s="26">
-        <v>4680115886100</v>
+        <v>4680115881761</v>
       </c>
       <c r="F2239" s="28" t="s">
-        <v>2555</v>
+        <v>203</v>
       </c>
       <c r="G2239" s="29" t="s">
         <v>2970</v>
@@ -57419,22 +57426,22 @@
     </row>
     <row r="2240" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2240" s="25" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="B2240" s="26" t="s">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="C2240" s="26" t="s">
-        <v>263</v>
+        <v>2554</v>
       </c>
       <c r="D2240" s="27">
-        <v>4301060406</v>
+        <v>4301031405</v>
       </c>
       <c r="E2240" s="26">
-        <v>4607091384482</v>
+        <v>4680115886100</v>
       </c>
       <c r="F2240" s="28" t="s">
-        <v>2648</v>
+        <v>2555</v>
       </c>
       <c r="G2240" s="29" t="s">
         <v>2970</v>
@@ -57442,22 +57449,22 @@
     </row>
     <row r="2241" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2241" s="25" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B2241" s="26" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="C2241" s="26" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="D2241" s="27">
-        <v>4301030878</v>
+        <v>4301060406</v>
       </c>
       <c r="E2241" s="26">
-        <v>4607091387193</v>
+        <v>4607091384482</v>
       </c>
       <c r="F2241" s="28" t="s">
-        <v>200</v>
+        <v>2648</v>
       </c>
       <c r="G2241" s="29" t="s">
         <v>2970</v>
@@ -57465,22 +57472,22 @@
     </row>
     <row r="2242" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2242" s="25" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B2242" s="26" t="s">
-        <v>418</v>
+        <v>177</v>
       </c>
       <c r="C2242" s="26" t="s">
-        <v>2640</v>
+        <v>178</v>
       </c>
       <c r="D2242" s="27">
-        <v>4301031353</v>
+        <v>4301030878</v>
       </c>
       <c r="E2242" s="26">
-        <v>4680115883109</v>
+        <v>4607091387193</v>
       </c>
       <c r="F2242" s="28" t="s">
-        <v>2641</v>
+        <v>200</v>
       </c>
       <c r="G2242" s="29" t="s">
         <v>2970</v>
@@ -57488,22 +57495,22 @@
     </row>
     <row r="2243" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2243" s="25" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B2243" s="26" t="s">
-        <v>185</v>
+        <v>418</v>
       </c>
       <c r="C2243" s="26" t="s">
-        <v>186</v>
+        <v>2640</v>
       </c>
       <c r="D2243" s="27">
-        <v>4301031201</v>
+        <v>4301031353</v>
       </c>
       <c r="E2243" s="26">
-        <v>4680115881563</v>
+        <v>4680115883109</v>
       </c>
       <c r="F2243" s="28" t="s">
-        <v>204</v>
+        <v>2641</v>
       </c>
       <c r="G2243" s="29" t="s">
         <v>2970</v>
@@ -57511,68 +57518,68 @@
     </row>
     <row r="2244" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2244" s="25" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="B2244" s="26" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="C2244" s="26" t="s">
-        <v>2855</v>
+        <v>186</v>
       </c>
       <c r="D2244" s="27">
-        <v>4301051724</v>
+        <v>4301031201</v>
       </c>
       <c r="E2244" s="26">
-        <v>4607091385168</v>
+        <v>4680115881563</v>
       </c>
       <c r="F2244" s="28" t="s">
-        <v>2856</v>
+        <v>204</v>
       </c>
       <c r="G2244" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2245" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2245" s="25" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B2245" s="26" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="C2245" s="26" t="s">
-        <v>222</v>
+        <v>2855</v>
       </c>
       <c r="D2245" s="27">
-        <v>4301051100</v>
+        <v>4301051724</v>
       </c>
       <c r="E2245" s="26">
-        <v>4607091387766</v>
+        <v>4607091385168</v>
       </c>
       <c r="F2245" s="28" t="s">
-        <v>246</v>
+        <v>2856</v>
       </c>
       <c r="G2245" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2246" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2246" s="25" t="s">
-        <v>2946</v>
-      </c>
-      <c r="B2246" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="C2246" s="3" t="s">
-        <v>2980</v>
-      </c>
-      <c r="D2246" s="4">
-        <v>4301052046</v>
-      </c>
-      <c r="E2246" s="3">
-        <v>4640242180533</v>
-      </c>
-      <c r="F2246" s="5" t="s">
-        <v>2748</v>
+        <v>2945</v>
+      </c>
+      <c r="B2246" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2246" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2246" s="27">
+        <v>4301051100</v>
+      </c>
+      <c r="E2246" s="26">
+        <v>4607091387766</v>
+      </c>
+      <c r="F2246" s="28" t="s">
+        <v>246</v>
       </c>
       <c r="G2246" s="29" t="s">
         <v>2970</v>
@@ -57580,22 +57587,22 @@
     </row>
     <row r="2247" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2247" s="25" t="s">
-        <v>2947</v>
-      </c>
-      <c r="B2247" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2247" s="26" t="s">
-        <v>2857</v>
-      </c>
-      <c r="D2247" s="27">
-        <v>4301051712</v>
-      </c>
-      <c r="E2247" s="26">
-        <v>4607091386967</v>
-      </c>
-      <c r="F2247" s="28" t="s">
-        <v>2858</v>
+        <v>2946</v>
+      </c>
+      <c r="B2247" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C2247" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2247" s="4">
+        <v>4301052046</v>
+      </c>
+      <c r="E2247" s="3">
+        <v>4640242180533</v>
+      </c>
+      <c r="F2247" s="5" t="s">
+        <v>2748</v>
       </c>
       <c r="G2247" s="29" t="s">
         <v>2970</v>
@@ -57603,22 +57610,22 @@
     </row>
     <row r="2248" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2248" s="25" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B2248" s="26" t="s">
-        <v>353</v>
+        <v>111</v>
       </c>
       <c r="C2248" s="26" t="s">
-        <v>2512</v>
+        <v>2857</v>
       </c>
       <c r="D2248" s="27">
-        <v>4301051899</v>
+        <v>4301051712</v>
       </c>
       <c r="E2248" s="26">
-        <v>4607091384246</v>
+        <v>4607091386967</v>
       </c>
       <c r="F2248" s="28" t="s">
-        <v>2513</v>
+        <v>2858</v>
       </c>
       <c r="G2248" s="29" t="s">
         <v>2970</v>
@@ -57626,22 +57633,22 @@
     </row>
     <row r="2249" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2249" s="25" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B2249" s="26" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="C2249" s="26" t="s">
-        <v>226</v>
+        <v>2512</v>
       </c>
       <c r="D2249" s="27">
-        <v>4301051115</v>
+        <v>4301051899</v>
       </c>
       <c r="E2249" s="26">
-        <v>4607091387964</v>
+        <v>4607091384246</v>
       </c>
       <c r="F2249" s="28" t="s">
-        <v>248</v>
+        <v>2513</v>
       </c>
       <c r="G2249" s="29" t="s">
         <v>2970</v>
@@ -57649,22 +57656,22 @@
     </row>
     <row r="2250" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2250" s="25" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B2250" s="26" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C2250" s="26" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D2250" s="27">
-        <v>4301051408</v>
+        <v>4301051115</v>
       </c>
       <c r="E2250" s="26">
-        <v>4680115881594</v>
+        <v>4607091387964</v>
       </c>
       <c r="F2250" s="28" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G2250" s="29" t="s">
         <v>2970</v>
@@ -57672,22 +57679,22 @@
     </row>
     <row r="2251" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2251" s="25" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B2251" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C2251" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D2251" s="27">
-        <v>4301051411</v>
+        <v>4301051408</v>
       </c>
       <c r="E2251" s="26">
-        <v>4680115881617</v>
+        <v>4680115881594</v>
       </c>
       <c r="F2251" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G2251" s="29" t="s">
         <v>2970</v>
@@ -57695,22 +57702,22 @@
     </row>
     <row r="2252" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2252" s="25" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B2252" s="26" t="s">
-        <v>657</v>
+        <v>215</v>
       </c>
       <c r="C2252" s="26" t="s">
-        <v>658</v>
+        <v>216</v>
       </c>
       <c r="D2252" s="27">
-        <v>4301031220</v>
+        <v>4301051411</v>
       </c>
       <c r="E2252" s="26">
-        <v>4680115882669</v>
+        <v>4680115881617</v>
       </c>
       <c r="F2252" s="28" t="s">
-        <v>659</v>
+        <v>243</v>
       </c>
       <c r="G2252" s="29" t="s">
         <v>2970</v>
@@ -57718,22 +57725,22 @@
     </row>
     <row r="2253" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2253" s="25" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B2253" s="26" t="s">
-        <v>173</v>
+        <v>657</v>
       </c>
       <c r="C2253" s="26" t="s">
-        <v>174</v>
+        <v>658</v>
       </c>
       <c r="D2253" s="27">
-        <v>4301031224</v>
+        <v>4301031220</v>
       </c>
       <c r="E2253" s="26">
-        <v>4680115882683</v>
+        <v>4680115882669</v>
       </c>
       <c r="F2253" s="28" t="s">
-        <v>198</v>
+        <v>659</v>
       </c>
       <c r="G2253" s="29" t="s">
         <v>2970</v>
@@ -57741,22 +57748,22 @@
     </row>
     <row r="2254" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2254" s="25" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B2254" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2254" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2254" s="27">
-        <v>4301031230</v>
+        <v>4301031224</v>
       </c>
       <c r="E2254" s="26">
-        <v>4680115882690</v>
+        <v>4680115882683</v>
       </c>
       <c r="F2254" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2254" s="29" t="s">
         <v>2970</v>
@@ -57764,22 +57771,22 @@
     </row>
     <row r="2255" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2255" s="25" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B2255" s="26" t="s">
-        <v>661</v>
+        <v>175</v>
       </c>
       <c r="C2255" s="26" t="s">
-        <v>662</v>
+        <v>176</v>
       </c>
       <c r="D2255" s="27">
-        <v>4301031221</v>
+        <v>4301031230</v>
       </c>
       <c r="E2255" s="26">
-        <v>4680115882676</v>
+        <v>4680115882690</v>
       </c>
       <c r="F2255" s="28" t="s">
-        <v>663</v>
+        <v>199</v>
       </c>
       <c r="G2255" s="29" t="s">
         <v>2970</v>
@@ -57787,22 +57794,22 @@
     </row>
     <row r="2256" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2256" s="25" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B2256" s="26" t="s">
-        <v>2154</v>
+        <v>661</v>
       </c>
       <c r="C2256" s="26" t="s">
-        <v>2155</v>
+        <v>662</v>
       </c>
       <c r="D2256" s="27">
-        <v>4301011850</v>
+        <v>4301031221</v>
       </c>
       <c r="E2256" s="26">
-        <v>4680115885806</v>
+        <v>4680115882676</v>
       </c>
       <c r="F2256" s="28" t="s">
-        <v>2156</v>
+        <v>663</v>
       </c>
       <c r="G2256" s="29" t="s">
         <v>2970</v>
@@ -57810,68 +57817,68 @@
     </row>
     <row r="2257" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2257" s="25" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B2257" s="26" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
       <c r="C2257" s="26" t="s">
-        <v>2170</v>
+        <v>2155</v>
       </c>
       <c r="D2257" s="27">
-        <v>4301011853</v>
+        <v>4301011850</v>
       </c>
       <c r="E2257" s="26">
-        <v>4680115885851</v>
+        <v>4680115885806</v>
       </c>
       <c r="F2257" s="28" t="s">
-        <v>2171</v>
+        <v>2156</v>
       </c>
       <c r="G2257" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2258" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2258" s="25" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B2258" s="26" t="s">
-        <v>32</v>
+        <v>2169</v>
       </c>
       <c r="C2258" s="26" t="s">
-        <v>33</v>
+        <v>2170</v>
       </c>
       <c r="D2258" s="27">
-        <v>4301020296</v>
+        <v>4301011853</v>
       </c>
       <c r="E2258" s="26">
-        <v>4680115881433</v>
+        <v>4680115885851</v>
       </c>
       <c r="F2258" s="28" t="s">
-        <v>35</v>
+        <v>2171</v>
       </c>
       <c r="G2258" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2259" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2259" s="25" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B2259" s="26" t="s">
-        <v>2467</v>
+        <v>32</v>
       </c>
       <c r="C2259" s="26" t="s">
-        <v>2468</v>
+        <v>33</v>
       </c>
       <c r="D2259" s="27">
-        <v>4301011443</v>
+        <v>4301020296</v>
       </c>
       <c r="E2259" s="26">
-        <v>4680115881303</v>
+        <v>4680115881433</v>
       </c>
       <c r="F2259" s="28" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G2259" s="29" t="s">
         <v>2970</v>
@@ -57879,22 +57886,22 @@
     </row>
     <row r="2260" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2260" s="25" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B2260" s="26" t="s">
-        <v>38</v>
+        <v>2467</v>
       </c>
       <c r="C2260" s="26" t="s">
-        <v>39</v>
+        <v>2468</v>
       </c>
       <c r="D2260" s="27">
-        <v>4301011801</v>
+        <v>4301011443</v>
       </c>
       <c r="E2260" s="26">
-        <v>4680115881419</v>
+        <v>4680115881303</v>
       </c>
       <c r="F2260" s="28" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G2260" s="29" t="s">
         <v>2970</v>
@@ -57902,45 +57909,45 @@
     </row>
     <row r="2261" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2261" s="25" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B2261" s="26" t="s">
-        <v>1478</v>
+        <v>38</v>
       </c>
       <c r="C2261" s="26" t="s">
-        <v>1479</v>
+        <v>39</v>
       </c>
       <c r="D2261" s="27">
-        <v>4301051864</v>
+        <v>4301011801</v>
       </c>
       <c r="E2261" s="26">
-        <v>4680115883567</v>
+        <v>4680115881419</v>
       </c>
       <c r="F2261" s="28" t="s">
-        <v>1480</v>
+        <v>41</v>
       </c>
       <c r="G2261" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2262" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2262" s="25" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B2262" s="26" t="s">
-        <v>1518</v>
+        <v>1478</v>
       </c>
       <c r="C2262" s="26" t="s">
-        <v>1519</v>
+        <v>1479</v>
       </c>
       <c r="D2262" s="27">
-        <v>4301051461</v>
+        <v>4301051864</v>
       </c>
       <c r="E2262" s="26">
-        <v>4680115883604</v>
+        <v>4680115883567</v>
       </c>
       <c r="F2262" s="28" t="s">
-        <v>1520</v>
+        <v>1480</v>
       </c>
       <c r="G2262" s="29" t="s">
         <v>2970</v>
@@ -57948,45 +57955,45 @@
     </row>
     <row r="2263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2263" s="25" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B2263" s="26" t="s">
-        <v>134</v>
+        <v>1518</v>
       </c>
       <c r="C2263" s="26" t="s">
-        <v>2789</v>
+        <v>1519</v>
       </c>
       <c r="D2263" s="27">
-        <v>4301051721</v>
+        <v>4301051461</v>
       </c>
       <c r="E2263" s="26">
-        <v>4607091385748</v>
+        <v>4680115883604</v>
       </c>
       <c r="F2263" s="28" t="s">
-        <v>2790</v>
+        <v>1520</v>
       </c>
       <c r="G2263" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2264" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2264" s="25" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B2264" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2264" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2264" s="4">
-        <v>4301051407</v>
-      </c>
-      <c r="E2264" s="3">
-        <v>4680115882195</v>
-      </c>
-      <c r="F2264" s="5" t="s">
-        <v>3065</v>
+        <v>2963</v>
+      </c>
+      <c r="B2264" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2264" s="26" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D2264" s="27">
+        <v>4301051721</v>
+      </c>
+      <c r="E2264" s="26">
+        <v>4607091385748</v>
+      </c>
+      <c r="F2264" s="28" t="s">
+        <v>2790</v>
       </c>
       <c r="G2264" s="29" t="s">
         <v>2970</v>
@@ -57994,68 +58001,68 @@
     </row>
     <row r="2265" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2265" s="25" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B2265" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2265" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2265" s="27">
-        <v>4301051388</v>
-      </c>
-      <c r="E2265" s="26">
-        <v>4680115881211</v>
-      </c>
-      <c r="F2265" s="28" t="s">
-        <v>252</v>
+        <v>2964</v>
+      </c>
+      <c r="B2265" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2265" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2265" s="4">
+        <v>4301051407</v>
+      </c>
+      <c r="E2265" s="3">
+        <v>4680115882195</v>
+      </c>
+      <c r="F2265" s="5" t="s">
+        <v>3065</v>
       </c>
       <c r="G2265" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2266" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2266" s="25" t="s">
-        <v>2966</v>
-      </c>
-      <c r="B2266" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2266" s="3" t="s">
-        <v>3060</v>
-      </c>
-      <c r="D2266" s="4">
-        <v>4301051718</v>
-      </c>
-      <c r="E2266" s="3">
-        <v>4607091385731</v>
-      </c>
-      <c r="F2266" s="5" t="s">
-        <v>3061</v>
+        <v>2965</v>
+      </c>
+      <c r="B2266" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2266" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2266" s="27">
+        <v>4301051388</v>
+      </c>
+      <c r="E2266" s="26">
+        <v>4680115881211</v>
+      </c>
+      <c r="F2266" s="28" t="s">
+        <v>252</v>
       </c>
       <c r="G2266" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="2267" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2267" s="25" t="s">
-        <v>2967</v>
-      </c>
-      <c r="B2267" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2267" s="26" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D2267" s="27">
-        <v>4301051666</v>
-      </c>
-      <c r="E2267" s="26">
-        <v>4680115880092</v>
-      </c>
-      <c r="F2267" s="28" t="s">
-        <v>2063</v>
+        <v>2966</v>
+      </c>
+      <c r="B2267" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2267" s="3" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D2267" s="4">
+        <v>4301051718</v>
+      </c>
+      <c r="E2267" s="3">
+        <v>4607091385731</v>
+      </c>
+      <c r="F2267" s="5" t="s">
+        <v>3061</v>
       </c>
       <c r="G2267" s="29" t="s">
         <v>2970</v>
@@ -58063,22 +58070,22 @@
     </row>
     <row r="2268" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2268" s="25" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B2268" s="26" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C2268" s="26" t="s">
-        <v>1166</v>
+        <v>2062</v>
       </c>
       <c r="D2268" s="27">
-        <v>4301051795</v>
+        <v>4301051666</v>
       </c>
       <c r="E2268" s="26">
-        <v>4680115881228</v>
+        <v>4680115880092</v>
       </c>
       <c r="F2268" s="28" t="s">
-        <v>1167</v>
+        <v>2063</v>
       </c>
       <c r="G2268" s="29" t="s">
         <v>2970</v>
@@ -58086,29 +58093,52 @@
     </row>
     <row r="2269" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2269" s="25" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B2269" s="26" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C2269" s="26" t="s">
-        <v>218</v>
+        <v>1166</v>
       </c>
       <c r="D2269" s="27">
-        <v>4301051410</v>
+        <v>4301051795</v>
       </c>
       <c r="E2269" s="26">
-        <v>4680115882164</v>
+        <v>4680115881228</v>
       </c>
       <c r="F2269" s="28" t="s">
-        <v>244</v>
+        <v>1167</v>
       </c>
       <c r="G2269" s="29" t="s">
         <v>2970</v>
       </c>
     </row>
+    <row r="2270" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2270" s="25" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B2270" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2270" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2270" s="27">
+        <v>4301051410</v>
+      </c>
+      <c r="E2270" s="26">
+        <v>4680115882164</v>
+      </c>
+      <c r="F2270" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2270" s="29" t="s">
+        <v>2970</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G2269" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
+  <autoFilter ref="A1:G2270" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBC066D-4BC7-4C69-81F3-5E5FB750586C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C3CE7-1158-4963-8002-F3EDCBB99791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9912,7 +9912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C3CE7-1158-4963-8002-F3EDCBB99791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8B416D-CBD4-449F-8E7E-94C4AC8F2502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9912,7 +9912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE9EBC-BE6B-4309-A2DD-1881A76BFA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017CF254-B2E3-4F9A-A40C-EFFCCFAA50D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9954,7 +9954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781DCCC5-47CC-4404-846C-35229E1EB18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B01812-56D3-431A-9FBC-C13596F313ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2302</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9453" uniqueCount="3130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9503" uniqueCount="3141">
   <si>
     <t>SU002447</t>
   </si>
@@ -9424,6 +9424,39 @@
   </si>
   <si>
     <t>Сосис*****баварские 0,42</t>
+  </si>
+  <si>
+    <t>В ДОКТОРСКАЯ/филейная ОСОБАЯ 2,6 ОСОБЫЙ РЕЦЕПТ, кг</t>
+  </si>
+  <si>
+    <t>В ДУГУШКА МОЛОЧНАЯ (0,800кг) ОР, кг</t>
+  </si>
+  <si>
+    <t>В СЛИВОЧНАЯ  ВЯЗАНКА ВЕКТОР 1,3 СТАРОДВОР, кг</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ВЯЗАНКА СТАРОДВОР 1,3, кг</t>
+  </si>
+  <si>
+    <t>ШТ ВАР ВАЗЯНКА ФИЛЕЙСКАЯ  0,450 1/10, кг</t>
+  </si>
+  <si>
+    <t>ВЕТЧИНА ДУГУШКА СТАРОДВОРЬЕ 0,8, кг</t>
+  </si>
+  <si>
+    <t>К БАЛЫКБУРГСКАЯ 0,7 ТМ БАВАРУШКА, кг</t>
+  </si>
+  <si>
+    <t>К ДУГУШКА рубленная  ЗАПЕЧЁННАЯ 0,850 СТАРОД, кг</t>
+  </si>
+  <si>
+    <t>К ДУГУШКА СЕРВЕЛАТ ЗАПЕЧЁННЫЙ 0,850 СТАРОД, кг</t>
+  </si>
+  <si>
+    <t>Поляков</t>
+  </si>
+  <si>
+    <t>ШТ СОСИСКИ СЛИВОЧНЫЕ  ВЯЗАНКА ,0,450 СТАРОДВОР (СЛИВУШКИ)1/6, кг</t>
   </si>
 </sst>
 </file>
@@ -9483,7 +9516,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9511,6 +9544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9584,7 +9623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9670,6 +9709,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9956,11 +10008,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G2292"/>
+  <dimension ref="A1:G2302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58674,8 +58726,238 @@
         <v>2969</v>
       </c>
     </row>
+    <row r="2293" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2293" s="35" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B2293" s="36" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C2293" s="36" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D2293" s="37">
+        <v>4301012215</v>
+      </c>
+      <c r="E2293" s="36">
+        <v>4680115887046</v>
+      </c>
+      <c r="F2293" s="38" t="s">
+        <v>3121</v>
+      </c>
+      <c r="G2293" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2294" s="35" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B2294" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2294" s="36" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D2294" s="37">
+        <v>4301011771</v>
+      </c>
+      <c r="E2294" s="36">
+        <v>4607091389104</v>
+      </c>
+      <c r="F2294" s="38" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G2294" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2295" s="35" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B2295" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2295" s="36" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D2295" s="37">
+        <v>4301011514</v>
+      </c>
+      <c r="E2295" s="36">
+        <v>4680115882133</v>
+      </c>
+      <c r="F2295" s="38" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G2295" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2296" s="35" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B2296" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2296" s="36" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D2296" s="37">
+        <v>4301011380</v>
+      </c>
+      <c r="E2296" s="36">
+        <v>4607091385670</v>
+      </c>
+      <c r="F2296" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2296" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2297" s="35" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B2297" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2297" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2297" s="37">
+        <v>4301011801</v>
+      </c>
+      <c r="E2297" s="36">
+        <v>4680115881419</v>
+      </c>
+      <c r="F2297" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2297" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2298" s="35" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B2298" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2298" s="36" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D2298" s="37">
+        <v>4301020334</v>
+      </c>
+      <c r="E2298" s="36">
+        <v>4607091388930</v>
+      </c>
+      <c r="F2298" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2298" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2299" s="35" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B2299" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2299" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D2299" s="37">
+        <v>4301031403</v>
+      </c>
+      <c r="E2299" s="36">
+        <v>4680115886094</v>
+      </c>
+      <c r="F2299" s="38" t="s">
+        <v>2543</v>
+      </c>
+      <c r="G2299" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2300" s="35" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B2300" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2300" s="36" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D2300" s="37">
+        <v>4301031349</v>
+      </c>
+      <c r="E2300" s="36">
+        <v>4680115883116</v>
+      </c>
+      <c r="F2300" s="38" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G2300" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2301" s="35" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B2301" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2301" s="36" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D2301" s="37">
+        <v>4301031353</v>
+      </c>
+      <c r="E2301" s="36">
+        <v>4680115883109</v>
+      </c>
+      <c r="F2301" s="38" t="s">
+        <v>2640</v>
+      </c>
+      <c r="G2301" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2302" s="35" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B2302" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2302" s="36" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D2302" s="37">
+        <v>4301051721</v>
+      </c>
+      <c r="E2302" s="36">
+        <v>4607091385748</v>
+      </c>
+      <c r="F2302" s="38" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G2302" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G2292" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
+  <autoFilter ref="A1:G2302" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B301485D-513C-4CC8-96C7-D02E288D172F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4511162-4273-4ABA-9FCD-7E42D905AFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2327</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9595" uniqueCount="3164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9603" uniqueCount="3172">
   <si>
     <t>SU002447</t>
   </si>
@@ -9526,6 +9526,30 @@
   </si>
   <si>
     <t>Сервёлат Филейбургский с ароматными пряностями 0,З5кг</t>
+  </si>
+  <si>
+    <t>530  Окорок Хамон выдержанный нарезка 0,055кг ТМ Стародворье  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003923</t>
+  </si>
+  <si>
+    <t>P005021</t>
+  </si>
+  <si>
+    <t>Деликатесы с/к «Окорок Хамон Вяленый выдержанный» Фикс.вес 0,055 нарезка ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>519  Грудинка 0,12 кг нарезка ТМ Стародворье  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003921</t>
+  </si>
+  <si>
+    <t>P005060</t>
+  </si>
+  <si>
+    <t>Деликатесы в/к «Грудинка копчено-вареная» Фикс.вес 0,12 нарезка ТМ «Стародворье»</t>
   </si>
 </sst>
 </file>
@@ -10077,11 +10101,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G2325"/>
+  <dimension ref="A1:G2327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57324,92 +57348,88 @@
       <c r="G2230" s="16"/>
     </row>
     <row r="2231" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2231" s="24" t="s">
+      <c r="A2231" s="6" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B2231" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C2231" s="3" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D2231" s="4">
+        <v>4301041005</v>
+      </c>
+      <c r="E2231" s="3">
+        <v>4680115886711</v>
+      </c>
+      <c r="F2231" s="5" t="s">
+        <v>3167</v>
+      </c>
+      <c r="G2231" s="16"/>
+    </row>
+    <row r="2232" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2232" s="6" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B2232" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C2232" s="3" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D2232" s="4">
+        <v>4301040362</v>
+      </c>
+      <c r="E2232" s="3">
+        <v>4680115886803</v>
+      </c>
+      <c r="F2232" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="G2232" s="16"/>
+    </row>
+    <row r="2233" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2233" s="24" t="s">
         <v>2874</v>
       </c>
-      <c r="B2231" s="3" t="s">
+      <c r="B2233" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="C2231" s="3" t="s">
+      <c r="C2233" s="3" t="s">
         <v>2852</v>
       </c>
-      <c r="D2231" s="4">
+      <c r="D2233" s="4">
         <v>4301051863</v>
       </c>
-      <c r="E2231" s="3">
+      <c r="E2233" s="3">
         <v>4680115885905</v>
       </c>
-      <c r="F2231" s="5" t="s">
+      <c r="F2233" s="5" t="s">
         <v>2853</v>
-      </c>
-      <c r="G2231" s="23" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="2232" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2232" s="24" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B2232" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2232" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2232" s="21">
-        <v>4301011382</v>
-      </c>
-      <c r="E2232" s="20">
-        <v>4607091385687</v>
-      </c>
-      <c r="F2232" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2232" s="23" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2233" s="24" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B2233" s="20" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C2233" s="20" t="s">
-        <v>2115</v>
-      </c>
-      <c r="D2233" s="21">
-        <v>4301051820</v>
-      </c>
-      <c r="E2233" s="20">
-        <v>4680115884915</v>
-      </c>
-      <c r="F2233" s="22" t="s">
-        <v>1891</v>
       </c>
       <c r="G2233" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2234" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2234" s="24" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="B2234" s="20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C2234" s="20" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D2234" s="21">
-        <v>4301020296</v>
+        <v>4301011382</v>
       </c>
       <c r="E2234" s="20">
-        <v>4680115881433</v>
+        <v>4607091385687</v>
       </c>
       <c r="F2234" s="22" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G2234" s="23" t="s">
         <v>2850</v>
@@ -57417,22 +57437,22 @@
     </row>
     <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2235" s="24" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="B2235" s="20" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="C2235" s="20" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D2235" s="21">
-        <v>4301051837</v>
+        <v>4301051820</v>
       </c>
       <c r="E2235" s="20">
-        <v>4680115884311</v>
+        <v>4680115884915</v>
       </c>
       <c r="F2235" s="22" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="G2235" s="23" t="s">
         <v>2850</v>
@@ -57440,45 +57460,45 @@
     </row>
     <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2236" s="24" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="B2236" s="20" t="s">
-        <v>2731</v>
+        <v>32</v>
       </c>
       <c r="C2236" s="20" t="s">
-        <v>2732</v>
+        <v>33</v>
       </c>
       <c r="D2236" s="21">
-        <v>4301051929</v>
+        <v>4301020296</v>
       </c>
       <c r="E2236" s="20">
-        <v>4680115884403</v>
+        <v>4680115881433</v>
       </c>
       <c r="F2236" s="22" t="s">
-        <v>2733</v>
+        <v>35</v>
       </c>
       <c r="G2236" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2237" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2237" s="24" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="B2237" s="20" t="s">
-        <v>1389</v>
+        <v>1893</v>
       </c>
       <c r="C2237" s="20" t="s">
-        <v>1390</v>
+        <v>2116</v>
       </c>
       <c r="D2237" s="21">
-        <v>4301060351</v>
+        <v>4301051837</v>
       </c>
       <c r="E2237" s="20">
-        <v>4680115881464</v>
+        <v>4680115884311</v>
       </c>
       <c r="F2237" s="22" t="s">
-        <v>1391</v>
+        <v>1894</v>
       </c>
       <c r="G2237" s="23" t="s">
         <v>2850</v>
@@ -57486,91 +57506,91 @@
     </row>
     <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2238" s="24" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="B2238" s="20" t="s">
-        <v>1932</v>
+        <v>2731</v>
       </c>
       <c r="C2238" s="20" t="s">
-        <v>1933</v>
+        <v>2732</v>
       </c>
       <c r="D2238" s="21">
-        <v>4301051740</v>
+        <v>4301051929</v>
       </c>
       <c r="E2238" s="20">
-        <v>4680115884533</v>
+        <v>4680115884403</v>
       </c>
       <c r="F2238" s="22" t="s">
-        <v>1934</v>
+        <v>2733</v>
       </c>
       <c r="G2238" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2239" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2239" s="24" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="B2239" s="20" t="s">
-        <v>128</v>
+        <v>1389</v>
       </c>
       <c r="C2239" s="20" t="s">
-        <v>129</v>
+        <v>1390</v>
       </c>
       <c r="D2239" s="21">
-        <v>4301060317</v>
+        <v>4301060351</v>
       </c>
       <c r="E2239" s="20">
-        <v>4680115880238</v>
+        <v>4680115881464</v>
       </c>
       <c r="F2239" s="22" t="s">
-        <v>2590</v>
+        <v>1391</v>
       </c>
       <c r="G2239" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2240" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2240" s="24" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="B2240" s="20" t="s">
-        <v>239</v>
+        <v>1932</v>
       </c>
       <c r="C2240" s="20" t="s">
-        <v>2062</v>
+        <v>1933</v>
       </c>
       <c r="D2240" s="21">
-        <v>4301051666</v>
+        <v>4301051740</v>
       </c>
       <c r="E2240" s="20">
-        <v>4680115880092</v>
+        <v>4680115884533</v>
       </c>
       <c r="F2240" s="22" t="s">
-        <v>2063</v>
+        <v>1934</v>
       </c>
       <c r="G2240" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2241" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2241" s="24" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="B2241" s="20" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="C2241" s="20" t="s">
-        <v>2064</v>
+        <v>129</v>
       </c>
       <c r="D2241" s="21">
-        <v>4301051668</v>
+        <v>4301060317</v>
       </c>
       <c r="E2241" s="20">
-        <v>4680115880221</v>
+        <v>4680115880238</v>
       </c>
       <c r="F2241" s="22" t="s">
-        <v>2065</v>
+        <v>2590</v>
       </c>
       <c r="G2241" s="23" t="s">
         <v>2850</v>
@@ -57578,22 +57598,22 @@
     </row>
     <row r="2242" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2242" s="24" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="B2242" s="20" t="s">
-        <v>1774</v>
+        <v>239</v>
       </c>
       <c r="C2242" s="20" t="s">
-        <v>1775</v>
+        <v>2062</v>
       </c>
       <c r="D2242" s="21">
-        <v>4301011824</v>
+        <v>4301051666</v>
       </c>
       <c r="E2242" s="20">
-        <v>4680115884144</v>
+        <v>4680115880092</v>
       </c>
       <c r="F2242" s="22" t="s">
-        <v>1773</v>
+        <v>2063</v>
       </c>
       <c r="G2242" s="23" t="s">
         <v>2850</v>
@@ -57601,22 +57621,22 @@
     </row>
     <row r="2243" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2243" s="24" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="B2243" s="20" t="s">
-        <v>1771</v>
+        <v>240</v>
       </c>
       <c r="C2243" s="20" t="s">
-        <v>1772</v>
+        <v>2064</v>
       </c>
       <c r="D2243" s="21">
-        <v>4301011722</v>
+        <v>4301051668</v>
       </c>
       <c r="E2243" s="20">
-        <v>4680115884205</v>
+        <v>4680115880221</v>
       </c>
       <c r="F2243" s="22" t="s">
-        <v>1770</v>
+        <v>2065</v>
       </c>
       <c r="G2243" s="23" t="s">
         <v>2850</v>
@@ -57624,22 +57644,22 @@
     </row>
     <row r="2244" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2244" s="24" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="B2244" s="20" t="s">
-        <v>2240</v>
+        <v>1774</v>
       </c>
       <c r="C2244" s="20" t="s">
-        <v>2241</v>
+        <v>1775</v>
       </c>
       <c r="D2244" s="21">
-        <v>4301011851</v>
+        <v>4301011824</v>
       </c>
       <c r="E2244" s="20">
-        <v>4680115885820</v>
+        <v>4680115884144</v>
       </c>
       <c r="F2244" s="22" t="s">
-        <v>2242</v>
+        <v>1773</v>
       </c>
       <c r="G2244" s="23" t="s">
         <v>2850</v>
@@ -57647,22 +57667,22 @@
     </row>
     <row r="2245" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2245" s="24" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="B2245" s="20" t="s">
-        <v>230</v>
+        <v>1771</v>
       </c>
       <c r="C2245" s="20" t="s">
-        <v>1166</v>
+        <v>1772</v>
       </c>
       <c r="D2245" s="21">
-        <v>4301051795</v>
+        <v>4301011722</v>
       </c>
       <c r="E2245" s="20">
-        <v>4680115881228</v>
+        <v>4680115884205</v>
       </c>
       <c r="F2245" s="22" t="s">
-        <v>1167</v>
+        <v>1770</v>
       </c>
       <c r="G2245" s="23" t="s">
         <v>2850</v>
@@ -57670,45 +57690,45 @@
     </row>
     <row r="2246" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2246" s="24" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="B2246" s="20" t="s">
-        <v>231</v>
+        <v>2240</v>
       </c>
       <c r="C2246" s="20" t="s">
-        <v>232</v>
+        <v>2241</v>
       </c>
       <c r="D2246" s="21">
-        <v>4301051388</v>
+        <v>4301011851</v>
       </c>
       <c r="E2246" s="20">
-        <v>4680115881211</v>
+        <v>4680115885820</v>
       </c>
       <c r="F2246" s="22" t="s">
-        <v>252</v>
+        <v>2242</v>
       </c>
       <c r="G2246" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2247" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2247" s="24" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="B2247" s="20" t="s">
-        <v>2599</v>
+        <v>230</v>
       </c>
       <c r="C2247" s="20" t="s">
-        <v>2600</v>
+        <v>1166</v>
       </c>
       <c r="D2247" s="21">
-        <v>4301051782</v>
+        <v>4301051795</v>
       </c>
       <c r="E2247" s="20">
-        <v>4680115884618</v>
+        <v>4680115881228</v>
       </c>
       <c r="F2247" s="22" t="s">
-        <v>2601</v>
+        <v>1167</v>
       </c>
       <c r="G2247" s="23" t="s">
         <v>2850</v>
@@ -57716,45 +57736,45 @@
     </row>
     <row r="2248" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2248" s="24" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="B2248" s="20" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C2248" s="20" t="s">
-        <v>2118</v>
+        <v>232</v>
       </c>
       <c r="D2248" s="21">
-        <v>4301031305</v>
+        <v>4301051388</v>
       </c>
       <c r="E2248" s="20">
-        <v>4607091389845</v>
+        <v>4680115881211</v>
       </c>
       <c r="F2248" s="22" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="G2248" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2249" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2249" s="24" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="B2249" s="20" t="s">
-        <v>2181</v>
+        <v>2599</v>
       </c>
       <c r="C2249" s="20" t="s">
-        <v>2182</v>
+        <v>2600</v>
       </c>
       <c r="D2249" s="21">
-        <v>4301011859</v>
+        <v>4301051782</v>
       </c>
       <c r="E2249" s="20">
-        <v>4680115885608</v>
+        <v>4680115884618</v>
       </c>
       <c r="F2249" s="22" t="s">
-        <v>2183</v>
+        <v>2601</v>
       </c>
       <c r="G2249" s="23" t="s">
         <v>2850</v>
@@ -57762,45 +57782,45 @@
     </row>
     <row r="2250" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2250" s="24" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="B2250" s="20" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="C2250" s="20" t="s">
-        <v>312</v>
+        <v>2118</v>
       </c>
       <c r="D2250" s="21">
-        <v>4301031066</v>
+        <v>4301031305</v>
       </c>
       <c r="E2250" s="20">
-        <v>4607091383836</v>
+        <v>4607091389845</v>
       </c>
       <c r="F2250" s="22" t="s">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="G2250" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2251" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2251" s="24" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="B2251" s="20" t="s">
-        <v>1518</v>
+        <v>2181</v>
       </c>
       <c r="C2251" s="20" t="s">
-        <v>1519</v>
+        <v>2182</v>
       </c>
       <c r="D2251" s="21">
-        <v>4301051461</v>
+        <v>4301011859</v>
       </c>
       <c r="E2251" s="20">
-        <v>4680115883604</v>
+        <v>4680115885608</v>
       </c>
       <c r="F2251" s="22" t="s">
-        <v>1520</v>
+        <v>2183</v>
       </c>
       <c r="G2251" s="23" t="s">
         <v>2850</v>
@@ -57808,45 +57828,45 @@
     </row>
     <row r="2252" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2252" s="24" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="B2252" s="20" t="s">
-        <v>1478</v>
+        <v>311</v>
       </c>
       <c r="C2252" s="20" t="s">
-        <v>1479</v>
+        <v>312</v>
       </c>
       <c r="D2252" s="21">
-        <v>4301051864</v>
+        <v>4301031066</v>
       </c>
       <c r="E2252" s="20">
-        <v>4680115883567</v>
+        <v>4607091383836</v>
       </c>
       <c r="F2252" s="22" t="s">
-        <v>1480</v>
+        <v>314</v>
       </c>
       <c r="G2252" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2253" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2253" s="24" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="B2253" s="20" t="s">
-        <v>2128</v>
+        <v>1518</v>
       </c>
       <c r="C2253" s="20" t="s">
-        <v>2129</v>
+        <v>1519</v>
       </c>
       <c r="D2253" s="21">
-        <v>4301011868</v>
+        <v>4301051461</v>
       </c>
       <c r="E2253" s="20">
-        <v>4680115884861</v>
+        <v>4680115883604</v>
       </c>
       <c r="F2253" s="22" t="s">
-        <v>2130</v>
+        <v>1520</v>
       </c>
       <c r="G2253" s="23" t="s">
         <v>2850</v>
@@ -57854,114 +57874,114 @@
     </row>
     <row r="2254" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2254" s="24" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="B2254" s="20" t="s">
-        <v>366</v>
+        <v>1478</v>
       </c>
       <c r="C2254" s="20" t="s">
-        <v>2589</v>
+        <v>1479</v>
       </c>
       <c r="D2254" s="21">
-        <v>4301031362</v>
+        <v>4301051864</v>
       </c>
       <c r="E2254" s="20">
-        <v>4607091384338</v>
+        <v>4680115883567</v>
       </c>
       <c r="F2254" s="22" t="s">
-        <v>373</v>
+        <v>1480</v>
       </c>
       <c r="G2254" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2255" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2255" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2255" s="24" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="B2255" s="20" t="s">
-        <v>367</v>
+        <v>2128</v>
       </c>
       <c r="C2255" s="20" t="s">
-        <v>2651</v>
+        <v>2129</v>
       </c>
       <c r="D2255" s="21">
-        <v>4301031361</v>
+        <v>4301011868</v>
       </c>
       <c r="E2255" s="20">
-        <v>4607091389524</v>
+        <v>4680115884861</v>
       </c>
       <c r="F2255" s="22" t="s">
-        <v>374</v>
+        <v>2130</v>
       </c>
       <c r="G2255" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2256" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2256" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2256" s="24" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="B2256" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C2256" s="20" t="s">
-        <v>2274</v>
+        <v>2589</v>
       </c>
       <c r="D2256" s="21">
-        <v>4301031358</v>
+        <v>4301031362</v>
       </c>
       <c r="E2256" s="20">
-        <v>4607091389531</v>
+        <v>4607091384338</v>
       </c>
       <c r="F2256" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G2256" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2257" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2257" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2257" s="24" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="B2257" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2257" s="20" t="s">
-        <v>2248</v>
+        <v>2651</v>
       </c>
       <c r="D2257" s="21">
-        <v>4301031360</v>
+        <v>4301031361</v>
       </c>
       <c r="E2257" s="20">
-        <v>4607091384345</v>
+        <v>4607091389524</v>
       </c>
       <c r="F2257" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G2257" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="2258" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2258" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2258" s="24" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="B2258" s="20" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C2258" s="20" t="s">
-        <v>382</v>
+        <v>2274</v>
       </c>
       <c r="D2258" s="21">
-        <v>4301051284</v>
+        <v>4301031358</v>
       </c>
       <c r="E2258" s="20">
-        <v>4607091384352</v>
+        <v>4607091389531</v>
       </c>
       <c r="F2258" s="22" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G2258" s="23" t="s">
         <v>2850</v>
@@ -57969,22 +57989,22 @@
     </row>
     <row r="2259" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2259" s="24" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="B2259" s="20" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C2259" s="20" t="s">
-        <v>380</v>
+        <v>2248</v>
       </c>
       <c r="D2259" s="21">
-        <v>4301051431</v>
+        <v>4301031360</v>
       </c>
       <c r="E2259" s="20">
-        <v>4607091389654</v>
+        <v>4607091384345</v>
       </c>
       <c r="F2259" s="22" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G2259" s="23" t="s">
         <v>2850</v>
@@ -57992,22 +58012,22 @@
     </row>
     <row r="2260" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2260" s="24" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B2260" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C2260" s="3" t="s">
-        <v>3056</v>
-      </c>
-      <c r="D2260" s="4">
-        <v>4301012034</v>
-      </c>
-      <c r="E2260" s="3">
-        <v>4607091389982</v>
-      </c>
-      <c r="F2260" s="5" t="s">
-        <v>1043</v>
+        <v>2901</v>
+      </c>
+      <c r="B2260" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2260" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2260" s="21">
+        <v>4301051284</v>
+      </c>
+      <c r="E2260" s="20">
+        <v>4607091384352</v>
+      </c>
+      <c r="F2260" s="22" t="s">
+        <v>387</v>
       </c>
       <c r="G2260" s="23" t="s">
         <v>2850</v>
@@ -58015,22 +58035,22 @@
     </row>
     <row r="2261" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2261" s="24" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="B2261" s="20" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="C2261" s="20" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="D2261" s="21">
-        <v>4301020179</v>
+        <v>4301051431</v>
       </c>
       <c r="E2261" s="20">
-        <v>4607091384178</v>
+        <v>4607091389654</v>
       </c>
       <c r="F2261" s="22" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="G2261" s="23" t="s">
         <v>2850</v>
@@ -58038,91 +58058,91 @@
     </row>
     <row r="2262" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2262" s="24" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B2262" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2262" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2262" s="21">
-        <v>4301180001</v>
-      </c>
-      <c r="E2262" s="20">
-        <v>4680115880016</v>
-      </c>
-      <c r="F2262" s="22" t="s">
-        <v>291</v>
+        <v>2903</v>
+      </c>
+      <c r="B2262" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C2262" s="3" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D2262" s="4">
+        <v>4301012034</v>
+      </c>
+      <c r="E2262" s="3">
+        <v>4607091389982</v>
+      </c>
+      <c r="F2262" s="5" t="s">
+        <v>1043</v>
       </c>
       <c r="G2262" s="23" t="s">
         <v>2850</v>
       </c>
     </row>
     <row r="2263" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2263" s="25" t="s">
+      <c r="A2263" s="24" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B2263" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2263" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2263" s="21">
+        <v>4301020179</v>
+      </c>
+      <c r="E2263" s="20">
+        <v>4607091384178</v>
+      </c>
+      <c r="F2263" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2263" s="23" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2264" s="24" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B2264" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2264" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2264" s="21">
+        <v>4301180001</v>
+      </c>
+      <c r="E2264" s="20">
+        <v>4680115880016</v>
+      </c>
+      <c r="F2264" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2264" s="23" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2265" s="25" t="s">
         <v>2916</v>
       </c>
-      <c r="B2263" s="26" t="s">
+      <c r="B2265" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="C2263" s="26" t="s">
+      <c r="C2265" s="26" t="s">
         <v>2542</v>
       </c>
-      <c r="D2263" s="27">
+      <c r="D2265" s="27">
         <v>4301031403</v>
       </c>
-      <c r="E2263" s="26">
+      <c r="E2265" s="26">
         <v>4680115886094</v>
       </c>
-      <c r="F2263" s="28" t="s">
+      <c r="F2265" s="28" t="s">
         <v>2543</v>
-      </c>
-      <c r="G2263" s="29" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="2264" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2264" s="25" t="s">
-        <v>2917</v>
-      </c>
-      <c r="B2264" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2264" s="26" t="s">
-        <v>2655</v>
-      </c>
-      <c r="D2264" s="27">
-        <v>4301031402</v>
-      </c>
-      <c r="E2264" s="26">
-        <v>4680115886124</v>
-      </c>
-      <c r="F2264" s="28" t="s">
-        <v>2656</v>
-      </c>
-      <c r="G2264" s="29" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="2265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2265" s="25" t="s">
-        <v>2918</v>
-      </c>
-      <c r="B2265" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2265" s="26" t="s">
-        <v>2787</v>
-      </c>
-      <c r="D2265" s="27">
-        <v>4301020334</v>
-      </c>
-      <c r="E2265" s="26">
-        <v>4607091388930</v>
-      </c>
-      <c r="F2265" s="28" t="s">
-        <v>413</v>
       </c>
       <c r="G2265" s="29" t="s">
         <v>2969</v>
@@ -58130,22 +58150,22 @@
     </row>
     <row r="2266" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2266" s="25" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B2266" s="26" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="C2266" s="26" t="s">
-        <v>331</v>
+        <v>2655</v>
       </c>
       <c r="D2266" s="27">
-        <v>4301020178</v>
+        <v>4301031402</v>
       </c>
       <c r="E2266" s="26">
-        <v>4607091383980</v>
+        <v>4680115886124</v>
       </c>
       <c r="F2266" s="28" t="s">
-        <v>334</v>
+        <v>2656</v>
       </c>
       <c r="G2266" s="29" t="s">
         <v>2969</v>
@@ -58153,91 +58173,91 @@
     </row>
     <row r="2267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2267" s="25" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="B2267" s="26" t="s">
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="C2267" s="26" t="s">
-        <v>31</v>
+        <v>2787</v>
       </c>
       <c r="D2267" s="27">
-        <v>4301020298</v>
+        <v>4301020334</v>
       </c>
       <c r="E2267" s="26">
-        <v>4680115881440</v>
+        <v>4607091388930</v>
       </c>
       <c r="F2267" s="28" t="s">
-        <v>34</v>
+        <v>413</v>
       </c>
       <c r="G2267" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2268" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2268" s="25" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B2268" s="26" t="s">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="C2268" s="26" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="D2268" s="27">
-        <v>4301011468</v>
+        <v>4301020178</v>
       </c>
       <c r="E2268" s="26">
-        <v>4680115881327</v>
+        <v>4607091383980</v>
       </c>
       <c r="F2268" s="28" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="G2268" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2269" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2269" s="25" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="B2269" s="26" t="s">
-        <v>2641</v>
+        <v>30</v>
       </c>
       <c r="C2269" s="26" t="s">
-        <v>2642</v>
+        <v>31</v>
       </c>
       <c r="D2269" s="27">
-        <v>4301012030</v>
+        <v>4301020298</v>
       </c>
       <c r="E2269" s="26">
-        <v>4680115885882</v>
+        <v>4680115881440</v>
       </c>
       <c r="F2269" s="28" t="s">
-        <v>2643</v>
+        <v>34</v>
       </c>
       <c r="G2269" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2270" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2270" s="25" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B2270" s="26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2270" s="26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D2270" s="27">
-        <v>4301011816</v>
+        <v>4301011468</v>
       </c>
       <c r="E2270" s="26">
-        <v>4680115881426</v>
+        <v>4680115881327</v>
       </c>
       <c r="F2270" s="28" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G2270" s="29" t="s">
         <v>2969</v>
@@ -58245,22 +58265,22 @@
     </row>
     <row r="2271" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2271" s="25" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="B2271" s="26" t="s">
-        <v>2071</v>
+        <v>2641</v>
       </c>
       <c r="C2271" s="26" t="s">
-        <v>2072</v>
+        <v>2642</v>
       </c>
       <c r="D2271" s="27">
-        <v>4301011867</v>
+        <v>4301012030</v>
       </c>
       <c r="E2271" s="26">
-        <v>4680115884830</v>
+        <v>4680115885882</v>
       </c>
       <c r="F2271" s="28" t="s">
-        <v>2073</v>
+        <v>2643</v>
       </c>
       <c r="G2271" s="29" t="s">
         <v>2969</v>
@@ -58268,22 +58288,22 @@
     </row>
     <row r="2272" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2272" s="25" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B2272" s="26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2272" s="26" t="s">
-        <v>2103</v>
+        <v>37</v>
       </c>
       <c r="D2272" s="27">
-        <v>4301011380</v>
+        <v>4301011816</v>
       </c>
       <c r="E2272" s="26">
-        <v>4607091385670</v>
+        <v>4680115881426</v>
       </c>
       <c r="F2272" s="28" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G2272" s="29" t="s">
         <v>2969</v>
@@ -58291,22 +58311,22 @@
     </row>
     <row r="2273" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2273" s="25" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="B2273" s="26" t="s">
-        <v>401</v>
+        <v>2071</v>
       </c>
       <c r="C2273" s="26" t="s">
-        <v>1818</v>
+        <v>2072</v>
       </c>
       <c r="D2273" s="27">
-        <v>4301011795</v>
+        <v>4301011867</v>
       </c>
       <c r="E2273" s="26">
-        <v>4607091389067</v>
+        <v>4680115884830</v>
       </c>
       <c r="F2273" s="28" t="s">
-        <v>406</v>
+        <v>2073</v>
       </c>
       <c r="G2273" s="29" t="s">
         <v>2969</v>
@@ -58314,22 +58334,22 @@
     </row>
     <row r="2274" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2274" s="25" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B2274" s="26" t="s">
-        <v>2225</v>
+        <v>42</v>
       </c>
       <c r="C2274" s="26" t="s">
-        <v>2226</v>
+        <v>2103</v>
       </c>
       <c r="D2274" s="27">
-        <v>4301011875</v>
+        <v>4301011380</v>
       </c>
       <c r="E2274" s="26">
-        <v>4680115884885</v>
+        <v>4607091385670</v>
       </c>
       <c r="F2274" s="28" t="s">
-        <v>2227</v>
+        <v>64</v>
       </c>
       <c r="G2274" s="29" t="s">
         <v>2969</v>
@@ -58337,22 +58357,22 @@
     </row>
     <row r="2275" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2275" s="25" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="B2275" s="26" t="s">
-        <v>2123</v>
+        <v>401</v>
       </c>
       <c r="C2275" s="26" t="s">
-        <v>2124</v>
+        <v>1818</v>
       </c>
       <c r="D2275" s="27">
-        <v>4301011376</v>
+        <v>4301011795</v>
       </c>
       <c r="E2275" s="26">
-        <v>4680115885226</v>
+        <v>4607091389067</v>
       </c>
       <c r="F2275" s="28" t="s">
-        <v>2125</v>
+        <v>406</v>
       </c>
       <c r="G2275" s="29" t="s">
         <v>2969</v>
@@ -58360,22 +58380,22 @@
     </row>
     <row r="2276" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2276" s="25" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B2276" s="26" t="s">
-        <v>402</v>
+        <v>2225</v>
       </c>
       <c r="C2276" s="26" t="s">
-        <v>2112</v>
+        <v>2226</v>
       </c>
       <c r="D2276" s="27">
-        <v>4301011961</v>
+        <v>4301011875</v>
       </c>
       <c r="E2276" s="26">
-        <v>4680115885271</v>
+        <v>4680115884885</v>
       </c>
       <c r="F2276" s="28" t="s">
-        <v>2113</v>
+        <v>2227</v>
       </c>
       <c r="G2276" s="29" t="s">
         <v>2969</v>
@@ -58383,22 +58403,22 @@
     </row>
     <row r="2277" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2277" s="25" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="B2277" s="26" t="s">
-        <v>403</v>
+        <v>2123</v>
       </c>
       <c r="C2277" s="26" t="s">
-        <v>1814</v>
+        <v>2124</v>
       </c>
       <c r="D2277" s="27">
-        <v>4301011771</v>
+        <v>4301011376</v>
       </c>
       <c r="E2277" s="26">
-        <v>4607091389104</v>
+        <v>4680115885226</v>
       </c>
       <c r="F2277" s="28" t="s">
-        <v>1815</v>
+        <v>2125</v>
       </c>
       <c r="G2277" s="29" t="s">
         <v>2969</v>
@@ -58406,22 +58426,22 @@
     </row>
     <row r="2278" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2278" s="25" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="B2278" s="26" t="s">
-        <v>1953</v>
+        <v>402</v>
       </c>
       <c r="C2278" s="26" t="s">
-        <v>1954</v>
+        <v>2112</v>
       </c>
       <c r="D2278" s="27">
-        <v>4301011869</v>
+        <v>4301011961</v>
       </c>
       <c r="E2278" s="26">
-        <v>4680115884847</v>
+        <v>4680115885271</v>
       </c>
       <c r="F2278" s="28" t="s">
-        <v>1955</v>
+        <v>2113</v>
       </c>
       <c r="G2278" s="29" t="s">
         <v>2969</v>
@@ -58429,22 +58449,22 @@
     </row>
     <row r="2279" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2279" s="25" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B2279" s="26" t="s">
-        <v>181</v>
+        <v>403</v>
       </c>
       <c r="C2279" s="26" t="s">
-        <v>182</v>
+        <v>1814</v>
       </c>
       <c r="D2279" s="27">
-        <v>4301031191</v>
+        <v>4301011771</v>
       </c>
       <c r="E2279" s="26">
-        <v>4680115880993</v>
+        <v>4607091389104</v>
       </c>
       <c r="F2279" s="28" t="s">
-        <v>202</v>
+        <v>1815</v>
       </c>
       <c r="G2279" s="29" t="s">
         <v>2969</v>
@@ -58452,22 +58472,22 @@
     </row>
     <row r="2280" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2280" s="25" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B2280" s="26" t="s">
-        <v>428</v>
+        <v>1953</v>
       </c>
       <c r="C2280" s="26" t="s">
-        <v>1247</v>
+        <v>1954</v>
       </c>
       <c r="D2280" s="27">
-        <v>4301011584</v>
+        <v>4301011869</v>
       </c>
       <c r="E2280" s="26">
-        <v>4640242180564</v>
+        <v>4680115884847</v>
       </c>
       <c r="F2280" s="28" t="s">
-        <v>1248</v>
+        <v>1955</v>
       </c>
       <c r="G2280" s="29" t="s">
         <v>2969</v>
@@ -58475,22 +58495,22 @@
     </row>
     <row r="2281" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2281" s="25" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B2281" s="26" t="s">
-        <v>1940</v>
+        <v>181</v>
       </c>
       <c r="C2281" s="26" t="s">
-        <v>1941</v>
+        <v>182</v>
       </c>
       <c r="D2281" s="27">
-        <v>4301011870</v>
+        <v>4301031191</v>
       </c>
       <c r="E2281" s="26">
-        <v>4680115884854</v>
+        <v>4680115880993</v>
       </c>
       <c r="F2281" s="28" t="s">
-        <v>1942</v>
+        <v>202</v>
       </c>
       <c r="G2281" s="29" t="s">
         <v>2969</v>
@@ -58498,45 +58518,45 @@
     </row>
     <row r="2282" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2282" s="25" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="B2282" s="26" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C2282" s="26" t="s">
-        <v>2573</v>
+        <v>1247</v>
       </c>
       <c r="D2282" s="27">
-        <v>4301031349</v>
+        <v>4301011584</v>
       </c>
       <c r="E2282" s="26">
-        <v>4680115883116</v>
+        <v>4640242180564</v>
       </c>
       <c r="F2282" s="28" t="s">
-        <v>2574</v>
+        <v>1248</v>
       </c>
       <c r="G2282" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2283" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2283" s="25" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B2283" s="26" t="s">
-        <v>417</v>
+        <v>1940</v>
       </c>
       <c r="C2283" s="26" t="s">
-        <v>2637</v>
+        <v>1941</v>
       </c>
       <c r="D2283" s="27">
-        <v>4301031350</v>
+        <v>4301011870</v>
       </c>
       <c r="E2283" s="26">
-        <v>4680115883093</v>
+        <v>4680115884854</v>
       </c>
       <c r="F2283" s="28" t="s">
-        <v>2638</v>
+        <v>1942</v>
       </c>
       <c r="G2283" s="29" t="s">
         <v>2969</v>
@@ -58544,45 +58564,45 @@
     </row>
     <row r="2284" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2284" s="25" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="B2284" s="26" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="C2284" s="26" t="s">
-        <v>184</v>
+        <v>2573</v>
       </c>
       <c r="D2284" s="27">
-        <v>4301031204</v>
+        <v>4301031349</v>
       </c>
       <c r="E2284" s="26">
-        <v>4680115881761</v>
+        <v>4680115883116</v>
       </c>
       <c r="F2284" s="28" t="s">
-        <v>203</v>
+        <v>2574</v>
       </c>
       <c r="G2284" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2285" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2285" s="25" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="B2285" s="26" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="C2285" s="26" t="s">
-        <v>2553</v>
+        <v>2637</v>
       </c>
       <c r="D2285" s="27">
-        <v>4301031405</v>
+        <v>4301031350</v>
       </c>
       <c r="E2285" s="26">
-        <v>4680115886100</v>
+        <v>4680115883093</v>
       </c>
       <c r="F2285" s="28" t="s">
-        <v>2554</v>
+        <v>2638</v>
       </c>
       <c r="G2285" s="29" t="s">
         <v>2969</v>
@@ -58590,22 +58610,22 @@
     </row>
     <row r="2286" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2286" s="25" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="B2286" s="26" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="C2286" s="26" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="D2286" s="27">
-        <v>4301060406</v>
+        <v>4301031204</v>
       </c>
       <c r="E2286" s="26">
-        <v>4607091384482</v>
+        <v>4680115881761</v>
       </c>
       <c r="F2286" s="28" t="s">
-        <v>2647</v>
+        <v>203</v>
       </c>
       <c r="G2286" s="29" t="s">
         <v>2969</v>
@@ -58613,22 +58633,22 @@
     </row>
     <row r="2287" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2287" s="25" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="B2287" s="26" t="s">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="C2287" s="26" t="s">
-        <v>178</v>
+        <v>2553</v>
       </c>
       <c r="D2287" s="27">
-        <v>4301030878</v>
+        <v>4301031405</v>
       </c>
       <c r="E2287" s="26">
-        <v>4607091387193</v>
+        <v>4680115886100</v>
       </c>
       <c r="F2287" s="28" t="s">
-        <v>200</v>
+        <v>2554</v>
       </c>
       <c r="G2287" s="29" t="s">
         <v>2969</v>
@@ -58636,22 +58656,22 @@
     </row>
     <row r="2288" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2288" s="25" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="B2288" s="26" t="s">
-        <v>418</v>
+        <v>262</v>
       </c>
       <c r="C2288" s="26" t="s">
-        <v>2639</v>
+        <v>263</v>
       </c>
       <c r="D2288" s="27">
-        <v>4301031353</v>
+        <v>4301060406</v>
       </c>
       <c r="E2288" s="26">
-        <v>4680115883109</v>
+        <v>4607091384482</v>
       </c>
       <c r="F2288" s="28" t="s">
-        <v>2640</v>
+        <v>2647</v>
       </c>
       <c r="G2288" s="29" t="s">
         <v>2969</v>
@@ -58659,22 +58679,22 @@
     </row>
     <row r="2289" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2289" s="25" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="B2289" s="26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C2289" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D2289" s="27">
-        <v>4301031201</v>
+        <v>4301030878</v>
       </c>
       <c r="E2289" s="26">
-        <v>4680115881563</v>
+        <v>4607091387193</v>
       </c>
       <c r="F2289" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G2289" s="29" t="s">
         <v>2969</v>
@@ -58682,45 +58702,45 @@
     </row>
     <row r="2290" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2290" s="25" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="B2290" s="26" t="s">
-        <v>132</v>
+        <v>418</v>
       </c>
       <c r="C2290" s="26" t="s">
-        <v>2854</v>
+        <v>2639</v>
       </c>
       <c r="D2290" s="27">
-        <v>4301051724</v>
+        <v>4301031353</v>
       </c>
       <c r="E2290" s="26">
-        <v>4607091385168</v>
+        <v>4680115883109</v>
       </c>
       <c r="F2290" s="28" t="s">
-        <v>2855</v>
+        <v>2640</v>
       </c>
       <c r="G2290" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2291" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2291" s="25" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="B2291" s="26" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="C2291" s="26" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D2291" s="27">
-        <v>4301051100</v>
+        <v>4301031201</v>
       </c>
       <c r="E2291" s="26">
-        <v>4607091387766</v>
+        <v>4680115881563</v>
       </c>
       <c r="F2291" s="28" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="G2291" s="29" t="s">
         <v>2969</v>
@@ -58728,45 +58748,45 @@
     </row>
     <row r="2292" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2292" s="25" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B2292" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="C2292" s="3" t="s">
-        <v>2979</v>
-      </c>
-      <c r="D2292" s="4">
-        <v>4301052046</v>
-      </c>
-      <c r="E2292" s="3">
-        <v>4640242180533</v>
-      </c>
-      <c r="F2292" s="5" t="s">
-        <v>2747</v>
+        <v>2943</v>
+      </c>
+      <c r="B2292" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2292" s="26" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D2292" s="27">
+        <v>4301051724</v>
+      </c>
+      <c r="E2292" s="26">
+        <v>4607091385168</v>
+      </c>
+      <c r="F2292" s="28" t="s">
+        <v>2855</v>
       </c>
       <c r="G2292" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2293" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2293" s="25" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="B2293" s="26" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="C2293" s="26" t="s">
-        <v>2856</v>
+        <v>222</v>
       </c>
       <c r="D2293" s="27">
-        <v>4301051712</v>
+        <v>4301051100</v>
       </c>
       <c r="E2293" s="26">
-        <v>4607091386967</v>
+        <v>4607091387766</v>
       </c>
       <c r="F2293" s="28" t="s">
-        <v>2857</v>
+        <v>246</v>
       </c>
       <c r="G2293" s="29" t="s">
         <v>2969</v>
@@ -58774,22 +58794,22 @@
     </row>
     <row r="2294" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2294" s="25" t="s">
-        <v>2947</v>
-      </c>
-      <c r="B2294" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2294" s="26" t="s">
-        <v>2511</v>
-      </c>
-      <c r="D2294" s="27">
-        <v>4301051899</v>
-      </c>
-      <c r="E2294" s="26">
-        <v>4607091384246</v>
-      </c>
-      <c r="F2294" s="28" t="s">
-        <v>2512</v>
+        <v>2945</v>
+      </c>
+      <c r="B2294" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C2294" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D2294" s="4">
+        <v>4301052046</v>
+      </c>
+      <c r="E2294" s="3">
+        <v>4640242180533</v>
+      </c>
+      <c r="F2294" s="5" t="s">
+        <v>2747</v>
       </c>
       <c r="G2294" s="29" t="s">
         <v>2969</v>
@@ -58797,22 +58817,22 @@
     </row>
     <row r="2295" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2295" s="25" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="B2295" s="26" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="C2295" s="26" t="s">
-        <v>226</v>
+        <v>2856</v>
       </c>
       <c r="D2295" s="27">
-        <v>4301051115</v>
+        <v>4301051712</v>
       </c>
       <c r="E2295" s="26">
-        <v>4607091387964</v>
+        <v>4607091386967</v>
       </c>
       <c r="F2295" s="28" t="s">
-        <v>248</v>
+        <v>2857</v>
       </c>
       <c r="G2295" s="29" t="s">
         <v>2969</v>
@@ -58820,22 +58840,22 @@
     </row>
     <row r="2296" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2296" s="25" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B2296" s="26" t="s">
-        <v>211</v>
+        <v>353</v>
       </c>
       <c r="C2296" s="26" t="s">
-        <v>212</v>
+        <v>2511</v>
       </c>
       <c r="D2296" s="27">
-        <v>4301051408</v>
+        <v>4301051899</v>
       </c>
       <c r="E2296" s="26">
-        <v>4680115881594</v>
+        <v>4607091384246</v>
       </c>
       <c r="F2296" s="28" t="s">
-        <v>242</v>
+        <v>2512</v>
       </c>
       <c r="G2296" s="29" t="s">
         <v>2969</v>
@@ -58843,22 +58863,22 @@
     </row>
     <row r="2297" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2297" s="25" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="B2297" s="26" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C2297" s="26" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D2297" s="27">
-        <v>4301051411</v>
+        <v>4301051115</v>
       </c>
       <c r="E2297" s="26">
-        <v>4680115881617</v>
+        <v>4607091387964</v>
       </c>
       <c r="F2297" s="28" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G2297" s="29" t="s">
         <v>2969</v>
@@ -58866,22 +58886,22 @@
     </row>
     <row r="2298" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2298" s="25" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="B2298" s="26" t="s">
-        <v>657</v>
+        <v>211</v>
       </c>
       <c r="C2298" s="26" t="s">
-        <v>658</v>
+        <v>212</v>
       </c>
       <c r="D2298" s="27">
-        <v>4301031220</v>
+        <v>4301051408</v>
       </c>
       <c r="E2298" s="26">
-        <v>4680115882669</v>
+        <v>4680115881594</v>
       </c>
       <c r="F2298" s="28" t="s">
-        <v>659</v>
+        <v>242</v>
       </c>
       <c r="G2298" s="29" t="s">
         <v>2969</v>
@@ -58889,22 +58909,22 @@
     </row>
     <row r="2299" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2299" s="25" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="B2299" s="26" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="C2299" s="26" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="D2299" s="27">
-        <v>4301031224</v>
+        <v>4301051411</v>
       </c>
       <c r="E2299" s="26">
-        <v>4680115882683</v>
+        <v>4680115881617</v>
       </c>
       <c r="F2299" s="28" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="G2299" s="29" t="s">
         <v>2969</v>
@@ -58912,22 +58932,22 @@
     </row>
     <row r="2300" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2300" s="25" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="B2300" s="26" t="s">
-        <v>175</v>
+        <v>657</v>
       </c>
       <c r="C2300" s="26" t="s">
-        <v>176</v>
+        <v>658</v>
       </c>
       <c r="D2300" s="27">
-        <v>4301031230</v>
+        <v>4301031220</v>
       </c>
       <c r="E2300" s="26">
-        <v>4680115882690</v>
+        <v>4680115882669</v>
       </c>
       <c r="F2300" s="28" t="s">
-        <v>199</v>
+        <v>659</v>
       </c>
       <c r="G2300" s="29" t="s">
         <v>2969</v>
@@ -58935,22 +58955,22 @@
     </row>
     <row r="2301" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2301" s="25" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="B2301" s="26" t="s">
-        <v>661</v>
+        <v>173</v>
       </c>
       <c r="C2301" s="26" t="s">
-        <v>662</v>
+        <v>174</v>
       </c>
       <c r="D2301" s="27">
-        <v>4301031221</v>
+        <v>4301031224</v>
       </c>
       <c r="E2301" s="26">
-        <v>4680115882676</v>
+        <v>4680115882683</v>
       </c>
       <c r="F2301" s="28" t="s">
-        <v>663</v>
+        <v>198</v>
       </c>
       <c r="G2301" s="29" t="s">
         <v>2969</v>
@@ -58958,22 +58978,22 @@
     </row>
     <row r="2302" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2302" s="25" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="B2302" s="26" t="s">
-        <v>2154</v>
+        <v>175</v>
       </c>
       <c r="C2302" s="26" t="s">
-        <v>2155</v>
+        <v>176</v>
       </c>
       <c r="D2302" s="27">
-        <v>4301011850</v>
+        <v>4301031230</v>
       </c>
       <c r="E2302" s="26">
-        <v>4680115885806</v>
+        <v>4680115882690</v>
       </c>
       <c r="F2302" s="28" t="s">
-        <v>2156</v>
+        <v>199</v>
       </c>
       <c r="G2302" s="29" t="s">
         <v>2969</v>
@@ -58981,45 +59001,45 @@
     </row>
     <row r="2303" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2303" s="25" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="B2303" s="26" t="s">
-        <v>2169</v>
+        <v>661</v>
       </c>
       <c r="C2303" s="26" t="s">
-        <v>2170</v>
+        <v>662</v>
       </c>
       <c r="D2303" s="27">
-        <v>4301011853</v>
+        <v>4301031221</v>
       </c>
       <c r="E2303" s="26">
-        <v>4680115885851</v>
+        <v>4680115882676</v>
       </c>
       <c r="F2303" s="28" t="s">
-        <v>2171</v>
+        <v>663</v>
       </c>
       <c r="G2303" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2304" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2304" s="25" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B2304" s="26" t="s">
-        <v>32</v>
+        <v>2154</v>
       </c>
       <c r="C2304" s="26" t="s">
-        <v>33</v>
+        <v>2155</v>
       </c>
       <c r="D2304" s="27">
-        <v>4301020296</v>
+        <v>4301011850</v>
       </c>
       <c r="E2304" s="26">
-        <v>4680115881433</v>
+        <v>4680115885806</v>
       </c>
       <c r="F2304" s="28" t="s">
-        <v>35</v>
+        <v>2156</v>
       </c>
       <c r="G2304" s="29" t="s">
         <v>2969</v>
@@ -59027,45 +59047,45 @@
     </row>
     <row r="2305" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2305" s="25" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="B2305" s="26" t="s">
-        <v>2467</v>
+        <v>2169</v>
       </c>
       <c r="C2305" s="26" t="s">
-        <v>2468</v>
+        <v>2170</v>
       </c>
       <c r="D2305" s="27">
-        <v>4301011443</v>
+        <v>4301011853</v>
       </c>
       <c r="E2305" s="26">
-        <v>4680115881303</v>
+        <v>4680115885851</v>
       </c>
       <c r="F2305" s="28" t="s">
-        <v>73</v>
+        <v>2171</v>
       </c>
       <c r="G2305" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2306" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2306" s="25" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="B2306" s="26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2306" s="26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2306" s="27">
-        <v>4301011801</v>
+        <v>4301020296</v>
       </c>
       <c r="E2306" s="26">
-        <v>4680115881419</v>
+        <v>4680115881433</v>
       </c>
       <c r="F2306" s="28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G2306" s="29" t="s">
         <v>2969</v>
@@ -59073,137 +59093,137 @@
     </row>
     <row r="2307" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2307" s="25" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="B2307" s="26" t="s">
-        <v>1478</v>
+        <v>2467</v>
       </c>
       <c r="C2307" s="26" t="s">
-        <v>1479</v>
+        <v>2468</v>
       </c>
       <c r="D2307" s="27">
-        <v>4301051864</v>
+        <v>4301011443</v>
       </c>
       <c r="E2307" s="26">
-        <v>4680115883567</v>
+        <v>4680115881303</v>
       </c>
       <c r="F2307" s="28" t="s">
-        <v>1480</v>
+        <v>73</v>
       </c>
       <c r="G2307" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2308" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2308" s="25" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="B2308" s="26" t="s">
-        <v>1518</v>
+        <v>38</v>
       </c>
       <c r="C2308" s="26" t="s">
-        <v>1519</v>
+        <v>39</v>
       </c>
       <c r="D2308" s="27">
-        <v>4301051461</v>
+        <v>4301011801</v>
       </c>
       <c r="E2308" s="26">
-        <v>4680115883604</v>
+        <v>4680115881419</v>
       </c>
       <c r="F2308" s="28" t="s">
-        <v>1520</v>
+        <v>41</v>
       </c>
       <c r="G2308" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2309" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2309" s="25" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="B2309" s="26" t="s">
-        <v>134</v>
+        <v>1478</v>
       </c>
       <c r="C2309" s="26" t="s">
-        <v>2788</v>
+        <v>1479</v>
       </c>
       <c r="D2309" s="27">
-        <v>4301051721</v>
+        <v>4301051864</v>
       </c>
       <c r="E2309" s="26">
-        <v>4607091385748</v>
+        <v>4680115883567</v>
       </c>
       <c r="F2309" s="28" t="s">
-        <v>2789</v>
+        <v>1480</v>
       </c>
       <c r="G2309" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2310" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2310" s="25" t="s">
-        <v>2963</v>
-      </c>
-      <c r="B2310" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2310" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2310" s="4">
-        <v>4301051407</v>
-      </c>
-      <c r="E2310" s="3">
-        <v>4680115882195</v>
-      </c>
-      <c r="F2310" s="5" t="s">
-        <v>3064</v>
+        <v>2961</v>
+      </c>
+      <c r="B2310" s="26" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C2310" s="26" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D2310" s="27">
+        <v>4301051461</v>
+      </c>
+      <c r="E2310" s="26">
+        <v>4680115883604</v>
+      </c>
+      <c r="F2310" s="28" t="s">
+        <v>1520</v>
       </c>
       <c r="G2310" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2311" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2311" s="25" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="B2311" s="26" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="C2311" s="26" t="s">
-        <v>232</v>
+        <v>2788</v>
       </c>
       <c r="D2311" s="27">
-        <v>4301051388</v>
+        <v>4301051721</v>
       </c>
       <c r="E2311" s="26">
-        <v>4680115881211</v>
+        <v>4607091385748</v>
       </c>
       <c r="F2311" s="28" t="s">
-        <v>252</v>
+        <v>2789</v>
       </c>
       <c r="G2311" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2312" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2312" s="25" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="B2312" s="3" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="C2312" s="3" t="s">
-        <v>3059</v>
+        <v>214</v>
       </c>
       <c r="D2312" s="4">
-        <v>4301051718</v>
+        <v>4301051407</v>
       </c>
       <c r="E2312" s="3">
-        <v>4607091385731</v>
+        <v>4680115882195</v>
       </c>
       <c r="F2312" s="5" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
       <c r="G2312" s="29" t="s">
         <v>2969</v>
@@ -59211,45 +59231,45 @@
     </row>
     <row r="2313" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2313" s="25" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="B2313" s="26" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C2313" s="26" t="s">
-        <v>2062</v>
+        <v>232</v>
       </c>
       <c r="D2313" s="27">
-        <v>4301051666</v>
+        <v>4301051388</v>
       </c>
       <c r="E2313" s="26">
-        <v>4680115880092</v>
+        <v>4680115881211</v>
       </c>
       <c r="F2313" s="28" t="s">
-        <v>2063</v>
+        <v>252</v>
       </c>
       <c r="G2313" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="2314" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2314" s="25" t="s">
-        <v>2967</v>
-      </c>
-      <c r="B2314" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2314" s="26" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D2314" s="27">
-        <v>4301051795</v>
-      </c>
-      <c r="E2314" s="26">
-        <v>4680115881228</v>
-      </c>
-      <c r="F2314" s="28" t="s">
-        <v>1167</v>
+        <v>2965</v>
+      </c>
+      <c r="B2314" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2314" s="3" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D2314" s="4">
+        <v>4301051718</v>
+      </c>
+      <c r="E2314" s="3">
+        <v>4607091385731</v>
+      </c>
+      <c r="F2314" s="5" t="s">
+        <v>3060</v>
       </c>
       <c r="G2314" s="29" t="s">
         <v>2969</v>
@@ -59257,91 +59277,91 @@
     </row>
     <row r="2315" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2315" s="25" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="B2315" s="26" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C2315" s="26" t="s">
-        <v>218</v>
+        <v>2062</v>
       </c>
       <c r="D2315" s="27">
-        <v>4301051410</v>
+        <v>4301051666</v>
       </c>
       <c r="E2315" s="26">
-        <v>4680115882164</v>
+        <v>4680115880092</v>
       </c>
       <c r="F2315" s="28" t="s">
-        <v>244</v>
+        <v>2063</v>
       </c>
       <c r="G2315" s="29" t="s">
         <v>2969</v>
       </c>
     </row>
     <row r="2316" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2316" s="35" t="s">
+      <c r="A2316" s="25" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B2316" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2316" s="26" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D2316" s="27">
+        <v>4301051795</v>
+      </c>
+      <c r="E2316" s="26">
+        <v>4680115881228</v>
+      </c>
+      <c r="F2316" s="28" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G2316" s="29" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2317" s="25" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B2317" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2317" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2317" s="27">
+        <v>4301051410</v>
+      </c>
+      <c r="E2317" s="26">
+        <v>4680115882164</v>
+      </c>
+      <c r="F2317" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2317" s="29" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2318" s="35" t="s">
         <v>3130</v>
       </c>
-      <c r="B2316" s="36" t="s">
+      <c r="B2318" s="36" t="s">
         <v>2506</v>
       </c>
-      <c r="C2316" s="36" t="s">
+      <c r="C2318" s="36" t="s">
         <v>3120</v>
       </c>
-      <c r="D2316" s="37">
+      <c r="D2318" s="37">
         <v>4301012215</v>
       </c>
-      <c r="E2316" s="36">
+      <c r="E2318" s="36">
         <v>4680115887046</v>
       </c>
-      <c r="F2316" s="38" t="s">
+      <c r="F2318" s="38" t="s">
         <v>3121</v>
-      </c>
-      <c r="G2316" s="39" t="s">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="2317" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2317" s="35" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B2317" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2317" s="36" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D2317" s="37">
-        <v>4301011771</v>
-      </c>
-      <c r="E2317" s="36">
-        <v>4607091389104</v>
-      </c>
-      <c r="F2317" s="38" t="s">
-        <v>1815</v>
-      </c>
-      <c r="G2317" s="39" t="s">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="2318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2318" s="35" t="s">
-        <v>3132</v>
-      </c>
-      <c r="B2318" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2318" s="36" t="s">
-        <v>2744</v>
-      </c>
-      <c r="D2318" s="37">
-        <v>4301011514</v>
-      </c>
-      <c r="E2318" s="36">
-        <v>4680115882133</v>
-      </c>
-      <c r="F2318" s="38" t="s">
-        <v>1482</v>
       </c>
       <c r="G2318" s="39" t="s">
         <v>3139</v>
@@ -59349,68 +59369,68 @@
     </row>
     <row r="2319" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2319" s="35" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="B2319" s="36" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="C2319" s="36" t="s">
-        <v>2103</v>
+        <v>1814</v>
       </c>
       <c r="D2319" s="37">
-        <v>4301011380</v>
+        <v>4301011771</v>
       </c>
       <c r="E2319" s="36">
-        <v>4607091385670</v>
+        <v>4607091389104</v>
       </c>
       <c r="F2319" s="38" t="s">
-        <v>64</v>
+        <v>1815</v>
       </c>
       <c r="G2319" s="39" t="s">
         <v>3139</v>
       </c>
     </row>
-    <row r="2320" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2320" s="35" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="B2320" s="36" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C2320" s="36" t="s">
-        <v>39</v>
+        <v>2744</v>
       </c>
       <c r="D2320" s="37">
-        <v>4301011801</v>
+        <v>4301011514</v>
       </c>
       <c r="E2320" s="36">
-        <v>4680115881419</v>
+        <v>4680115882133</v>
       </c>
       <c r="F2320" s="38" t="s">
-        <v>41</v>
+        <v>1482</v>
       </c>
       <c r="G2320" s="39" t="s">
         <v>3139</v>
       </c>
     </row>
-    <row r="2321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2321" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2321" s="35" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="B2321" s="36" t="s">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="C2321" s="36" t="s">
-        <v>2787</v>
+        <v>2103</v>
       </c>
       <c r="D2321" s="37">
-        <v>4301020334</v>
+        <v>4301011380</v>
       </c>
       <c r="E2321" s="36">
-        <v>4607091388930</v>
+        <v>4607091385670</v>
       </c>
       <c r="F2321" s="38" t="s">
-        <v>413</v>
+        <v>64</v>
       </c>
       <c r="G2321" s="39" t="s">
         <v>3139</v>
@@ -59418,45 +59438,45 @@
     </row>
     <row r="2322" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2322" s="35" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="B2322" s="36" t="s">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="C2322" s="36" t="s">
-        <v>2542</v>
+        <v>39</v>
       </c>
       <c r="D2322" s="37">
-        <v>4301031403</v>
+        <v>4301011801</v>
       </c>
       <c r="E2322" s="36">
-        <v>4680115886094</v>
+        <v>4680115881419</v>
       </c>
       <c r="F2322" s="38" t="s">
-        <v>2543</v>
+        <v>41</v>
       </c>
       <c r="G2322" s="39" t="s">
         <v>3139</v>
       </c>
     </row>
-    <row r="2323" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2323" s="35" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="B2323" s="36" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C2323" s="36" t="s">
-        <v>2573</v>
+        <v>2787</v>
       </c>
       <c r="D2323" s="37">
-        <v>4301031349</v>
+        <v>4301020334</v>
       </c>
       <c r="E2323" s="36">
-        <v>4680115883116</v>
+        <v>4607091388930</v>
       </c>
       <c r="F2323" s="38" t="s">
-        <v>2574</v>
+        <v>413</v>
       </c>
       <c r="G2323" s="39" t="s">
         <v>3139</v>
@@ -59464,52 +59484,98 @@
     </row>
     <row r="2324" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2324" s="35" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="B2324" s="36" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="C2324" s="36" t="s">
-        <v>2639</v>
+        <v>2542</v>
       </c>
       <c r="D2324" s="37">
-        <v>4301031353</v>
+        <v>4301031403</v>
       </c>
       <c r="E2324" s="36">
-        <v>4680115883109</v>
+        <v>4680115886094</v>
       </c>
       <c r="F2324" s="38" t="s">
-        <v>2640</v>
+        <v>2543</v>
       </c>
       <c r="G2324" s="39" t="s">
         <v>3139</v>
       </c>
     </row>
-    <row r="2325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2325" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2325" s="35" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="B2325" s="36" t="s">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="C2325" s="36" t="s">
-        <v>2788</v>
+        <v>2573</v>
       </c>
       <c r="D2325" s="37">
-        <v>4301051721</v>
+        <v>4301031349</v>
       </c>
       <c r="E2325" s="36">
-        <v>4607091385748</v>
+        <v>4680115883116</v>
       </c>
       <c r="F2325" s="38" t="s">
-        <v>2789</v>
+        <v>2574</v>
       </c>
       <c r="G2325" s="39" t="s">
         <v>3139</v>
       </c>
     </row>
+    <row r="2326" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2326" s="35" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B2326" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2326" s="36" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D2326" s="37">
+        <v>4301031353</v>
+      </c>
+      <c r="E2326" s="36">
+        <v>4680115883109</v>
+      </c>
+      <c r="F2326" s="38" t="s">
+        <v>2640</v>
+      </c>
+      <c r="G2326" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2327" s="35" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B2327" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2327" s="36" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D2327" s="37">
+        <v>4301051721</v>
+      </c>
+      <c r="E2327" s="36">
+        <v>4607091385748</v>
+      </c>
+      <c r="F2327" s="38" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G2327" s="39" t="s">
+        <v>3139</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G2325" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
+  <autoFilter ref="A1:G2327" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4511162-4273-4ABA-9FCD-7E42D905AFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37867465-01A3-43A3-9167-34A908DC3AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9603" uniqueCount="3172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9604" uniqueCount="3173">
   <si>
     <t>SU002447</t>
   </si>
@@ -9550,6 +9550,9 @@
   </si>
   <si>
     <t>Деликатесы в/к «Грудинка копчено-вареная» Фикс.вес 0,12 нарезка ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Докторская Бордо - называет Пушкарный</t>
   </si>
 </sst>
 </file>
@@ -10105,7 +10108,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10117,6 +10120,7 @@
     <col min="5" max="5" width="14.140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="46.28515625" customWidth="1"/>
     <col min="7" max="7" width="39" style="19" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -57326,7 +57330,7 @@
       </c>
       <c r="G2229" s="16"/>
     </row>
-    <row r="2230" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2230" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2230" s="6" t="s">
         <v>3103</v>
       </c>
@@ -57345,7 +57349,9 @@
       <c r="F2230" s="5" t="s">
         <v>3103</v>
       </c>
-      <c r="G2230" s="16"/>
+      <c r="G2230" s="16" t="s">
+        <v>3172</v>
+      </c>
     </row>
     <row r="2231" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2231" s="6" t="s">

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB86A4E-0674-4FAF-9D61-FAA65C652297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F57264-6E02-4E20-AAE3-D7E9E48FFBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10116,8 +10116,8 @@
   <dimension ref="A1:G2330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA78798-BBD6-43AB-A676-C0826D073A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388A1ABA-9C13-42D1-B948-4A203E4FE46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2336</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9632" uniqueCount="3190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9640" uniqueCount="3192">
   <si>
     <t>SU002447</t>
   </si>
@@ -9604,6 +9604,12 @@
   </si>
   <si>
     <t>Сырокопченые колбасы «Мраморная» Фикс.вес 0,07 нарезка ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Окорок Хамон выдержанный нарезка 0,055кг ТМ Стародворье  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Грудинка 0,12 кг нарезка ТМ Стародворье  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -10155,11 +10161,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G2334"/>
+  <dimension ref="A1:G2336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57490,7 +57496,7 @@
     </row>
     <row r="2235" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2235" s="6" t="s">
-        <v>3163</v>
+        <v>3190</v>
       </c>
       <c r="B2235" s="3" t="s">
         <v>3164</v>
@@ -57511,175 +57517,171 @@
     </row>
     <row r="2236" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2236" s="6" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="B2236" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="C2236" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="D2236" s="4">
-        <v>4301040362</v>
+        <v>4301041005</v>
       </c>
       <c r="E2236" s="3">
-        <v>4680115886803</v>
+        <v>4680115886711</v>
       </c>
       <c r="F2236" s="5" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="G2236" s="16"/>
     </row>
     <row r="2237" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2237" s="6" t="s">
-        <v>3178</v>
+        <v>3191</v>
       </c>
       <c r="B2237" s="3" t="s">
-        <v>3179</v>
+        <v>3168</v>
       </c>
       <c r="C2237" s="3" t="s">
-        <v>3180</v>
+        <v>3169</v>
       </c>
       <c r="D2237" s="4">
-        <v>4301041004</v>
+        <v>4301040362</v>
       </c>
       <c r="E2237" s="3">
-        <v>4680115886704</v>
+        <v>4680115886803</v>
       </c>
       <c r="F2237" s="5" t="s">
-        <v>3181</v>
+        <v>3170</v>
       </c>
       <c r="G2237" s="16"/>
     </row>
     <row r="2238" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2238" s="6" t="s">
-        <v>3182</v>
+        <v>3167</v>
       </c>
       <c r="B2238" s="3" t="s">
-        <v>3183</v>
+        <v>3168</v>
       </c>
       <c r="C2238" s="3" t="s">
-        <v>3184</v>
+        <v>3169</v>
       </c>
       <c r="D2238" s="4">
-        <v>4301041008</v>
+        <v>4301040362</v>
       </c>
       <c r="E2238" s="3">
-        <v>4680115886681</v>
+        <v>4680115886803</v>
       </c>
       <c r="F2238" s="5" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
       <c r="G2238" s="16"/>
     </row>
     <row r="2239" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2239" s="6" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B2239" s="3" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C2239" s="3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D2239" s="4">
+        <v>4301041004</v>
+      </c>
+      <c r="E2239" s="3">
+        <v>4680115886704</v>
+      </c>
+      <c r="F2239" s="5" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G2239" s="16"/>
+    </row>
+    <row r="2240" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2240" s="6" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B2240" s="3" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C2240" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D2240" s="4">
+        <v>4301041008</v>
+      </c>
+      <c r="E2240" s="3">
+        <v>4680115886681</v>
+      </c>
+      <c r="F2240" s="5" t="s">
+        <v>3185</v>
+      </c>
+      <c r="G2240" s="16"/>
+    </row>
+    <row r="2241" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2241" s="6" t="s">
         <v>3186</v>
       </c>
-      <c r="B2239" s="3" t="s">
+      <c r="B2241" s="3" t="s">
         <v>3187</v>
       </c>
-      <c r="C2239" s="3" t="s">
+      <c r="C2241" s="3" t="s">
         <v>3188</v>
       </c>
-      <c r="D2239" s="4">
+      <c r="D2241" s="4">
         <v>4301032053</v>
       </c>
-      <c r="E2239" s="3">
+      <c r="E2241" s="3">
         <v>4680115886780</v>
       </c>
-      <c r="F2239" s="5" t="s">
+      <c r="F2241" s="5" t="s">
         <v>3189</v>
       </c>
-      <c r="G2239" s="16"/>
-    </row>
-    <row r="2240" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2240" s="24" t="s">
+      <c r="G2241" s="16"/>
+    </row>
+    <row r="2242" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2242" s="24" t="s">
         <v>2873</v>
       </c>
-      <c r="B2240" s="3" t="s">
+      <c r="B2242" s="3" t="s">
         <v>2850</v>
       </c>
-      <c r="C2240" s="3" t="s">
+      <c r="C2242" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="D2240" s="4">
+      <c r="D2242" s="4">
         <v>4301051863</v>
       </c>
-      <c r="E2240" s="3">
+      <c r="E2242" s="3">
         <v>4680115885905</v>
       </c>
-      <c r="F2240" s="5" t="s">
+      <c r="F2242" s="5" t="s">
         <v>2852</v>
-      </c>
-      <c r="G2240" s="23" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="2241" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2241" s="24" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B2241" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2241" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2241" s="21">
-        <v>4301011382</v>
-      </c>
-      <c r="E2241" s="20">
-        <v>4607091385687</v>
-      </c>
-      <c r="F2241" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2241" s="23" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2242" s="24" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B2242" s="20" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C2242" s="20" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D2242" s="21">
-        <v>4301051820</v>
-      </c>
-      <c r="E2242" s="20">
-        <v>4680115884915</v>
-      </c>
-      <c r="F2242" s="22" t="s">
-        <v>1890</v>
       </c>
       <c r="G2242" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2243" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2243" s="24" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="B2243" s="20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C2243" s="20" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D2243" s="21">
-        <v>4301020296</v>
+        <v>4301011382</v>
       </c>
       <c r="E2243" s="20">
-        <v>4680115881433</v>
+        <v>4607091385687</v>
       </c>
       <c r="F2243" s="22" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G2243" s="23" t="s">
         <v>2849</v>
@@ -57687,22 +57689,22 @@
     </row>
     <row r="2244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2244" s="24" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="B2244" s="20" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="C2244" s="20" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D2244" s="21">
-        <v>4301051837</v>
+        <v>4301051820</v>
       </c>
       <c r="E2244" s="20">
-        <v>4680115884311</v>
+        <v>4680115884915</v>
       </c>
       <c r="F2244" s="22" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="G2244" s="23" t="s">
         <v>2849</v>
@@ -57710,45 +57712,45 @@
     </row>
     <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2245" s="24" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="B2245" s="20" t="s">
-        <v>2730</v>
+        <v>32</v>
       </c>
       <c r="C2245" s="20" t="s">
-        <v>2731</v>
+        <v>33</v>
       </c>
       <c r="D2245" s="21">
-        <v>4301051929</v>
+        <v>4301020296</v>
       </c>
       <c r="E2245" s="20">
-        <v>4680115884403</v>
+        <v>4680115881433</v>
       </c>
       <c r="F2245" s="22" t="s">
-        <v>2732</v>
+        <v>35</v>
       </c>
       <c r="G2245" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2246" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2246" s="24" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="B2246" s="20" t="s">
-        <v>1389</v>
+        <v>1892</v>
       </c>
       <c r="C2246" s="20" t="s">
-        <v>1390</v>
+        <v>2115</v>
       </c>
       <c r="D2246" s="21">
-        <v>4301060351</v>
+        <v>4301051837</v>
       </c>
       <c r="E2246" s="20">
-        <v>4680115881464</v>
+        <v>4680115884311</v>
       </c>
       <c r="F2246" s="22" t="s">
-        <v>1391</v>
+        <v>1893</v>
       </c>
       <c r="G2246" s="23" t="s">
         <v>2849</v>
@@ -57756,91 +57758,91 @@
     </row>
     <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2247" s="24" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="B2247" s="20" t="s">
-        <v>1931</v>
+        <v>2730</v>
       </c>
       <c r="C2247" s="20" t="s">
-        <v>1932</v>
+        <v>2731</v>
       </c>
       <c r="D2247" s="21">
-        <v>4301051740</v>
+        <v>4301051929</v>
       </c>
       <c r="E2247" s="20">
-        <v>4680115884533</v>
+        <v>4680115884403</v>
       </c>
       <c r="F2247" s="22" t="s">
-        <v>1933</v>
+        <v>2732</v>
       </c>
       <c r="G2247" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2248" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2248" s="24" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="B2248" s="20" t="s">
-        <v>128</v>
+        <v>1389</v>
       </c>
       <c r="C2248" s="20" t="s">
-        <v>129</v>
+        <v>1390</v>
       </c>
       <c r="D2248" s="21">
-        <v>4301060317</v>
+        <v>4301060351</v>
       </c>
       <c r="E2248" s="20">
-        <v>4680115880238</v>
+        <v>4680115881464</v>
       </c>
       <c r="F2248" s="22" t="s">
-        <v>2589</v>
+        <v>1391</v>
       </c>
       <c r="G2248" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2249" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2249" s="24" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="B2249" s="20" t="s">
-        <v>239</v>
+        <v>1931</v>
       </c>
       <c r="C2249" s="20" t="s">
-        <v>2061</v>
+        <v>1932</v>
       </c>
       <c r="D2249" s="21">
-        <v>4301051666</v>
+        <v>4301051740</v>
       </c>
       <c r="E2249" s="20">
-        <v>4680115880092</v>
+        <v>4680115884533</v>
       </c>
       <c r="F2249" s="22" t="s">
-        <v>2062</v>
+        <v>1933</v>
       </c>
       <c r="G2249" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2250" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2250" s="24" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="B2250" s="20" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="C2250" s="20" t="s">
-        <v>2063</v>
+        <v>129</v>
       </c>
       <c r="D2250" s="21">
-        <v>4301051668</v>
+        <v>4301060317</v>
       </c>
       <c r="E2250" s="20">
-        <v>4680115880221</v>
+        <v>4680115880238</v>
       </c>
       <c r="F2250" s="22" t="s">
-        <v>2064</v>
+        <v>2589</v>
       </c>
       <c r="G2250" s="23" t="s">
         <v>2849</v>
@@ -57848,22 +57850,22 @@
     </row>
     <row r="2251" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2251" s="24" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="B2251" s="20" t="s">
-        <v>1774</v>
+        <v>239</v>
       </c>
       <c r="C2251" s="20" t="s">
-        <v>1775</v>
+        <v>2061</v>
       </c>
       <c r="D2251" s="21">
-        <v>4301011824</v>
+        <v>4301051666</v>
       </c>
       <c r="E2251" s="20">
-        <v>4680115884144</v>
+        <v>4680115880092</v>
       </c>
       <c r="F2251" s="22" t="s">
-        <v>1773</v>
+        <v>2062</v>
       </c>
       <c r="G2251" s="23" t="s">
         <v>2849</v>
@@ -57871,22 +57873,22 @@
     </row>
     <row r="2252" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2252" s="24" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="B2252" s="20" t="s">
-        <v>1771</v>
+        <v>240</v>
       </c>
       <c r="C2252" s="20" t="s">
-        <v>1772</v>
+        <v>2063</v>
       </c>
       <c r="D2252" s="21">
-        <v>4301011722</v>
+        <v>4301051668</v>
       </c>
       <c r="E2252" s="20">
-        <v>4680115884205</v>
+        <v>4680115880221</v>
       </c>
       <c r="F2252" s="22" t="s">
-        <v>1770</v>
+        <v>2064</v>
       </c>
       <c r="G2252" s="23" t="s">
         <v>2849</v>
@@ -57894,22 +57896,22 @@
     </row>
     <row r="2253" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2253" s="24" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="B2253" s="20" t="s">
-        <v>2239</v>
+        <v>1774</v>
       </c>
       <c r="C2253" s="20" t="s">
-        <v>2240</v>
+        <v>1775</v>
       </c>
       <c r="D2253" s="21">
-        <v>4301011851</v>
+        <v>4301011824</v>
       </c>
       <c r="E2253" s="20">
-        <v>4680115885820</v>
+        <v>4680115884144</v>
       </c>
       <c r="F2253" s="22" t="s">
-        <v>2241</v>
+        <v>1773</v>
       </c>
       <c r="G2253" s="23" t="s">
         <v>2849</v>
@@ -57917,22 +57919,22 @@
     </row>
     <row r="2254" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2254" s="24" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="B2254" s="20" t="s">
-        <v>230</v>
+        <v>1771</v>
       </c>
       <c r="C2254" s="20" t="s">
-        <v>1166</v>
+        <v>1772</v>
       </c>
       <c r="D2254" s="21">
-        <v>4301051795</v>
+        <v>4301011722</v>
       </c>
       <c r="E2254" s="20">
-        <v>4680115881228</v>
+        <v>4680115884205</v>
       </c>
       <c r="F2254" s="22" t="s">
-        <v>1167</v>
+        <v>1770</v>
       </c>
       <c r="G2254" s="23" t="s">
         <v>2849</v>
@@ -57940,45 +57942,45 @@
     </row>
     <row r="2255" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2255" s="24" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="B2255" s="20" t="s">
-        <v>231</v>
+        <v>2239</v>
       </c>
       <c r="C2255" s="20" t="s">
-        <v>232</v>
+        <v>2240</v>
       </c>
       <c r="D2255" s="21">
-        <v>4301051388</v>
+        <v>4301011851</v>
       </c>
       <c r="E2255" s="20">
-        <v>4680115881211</v>
+        <v>4680115885820</v>
       </c>
       <c r="F2255" s="22" t="s">
-        <v>252</v>
+        <v>2241</v>
       </c>
       <c r="G2255" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2256" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2256" s="24" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="B2256" s="20" t="s">
-        <v>2598</v>
+        <v>230</v>
       </c>
       <c r="C2256" s="20" t="s">
-        <v>2599</v>
+        <v>1166</v>
       </c>
       <c r="D2256" s="21">
-        <v>4301051782</v>
+        <v>4301051795</v>
       </c>
       <c r="E2256" s="20">
-        <v>4680115884618</v>
+        <v>4680115881228</v>
       </c>
       <c r="F2256" s="22" t="s">
-        <v>2600</v>
+        <v>1167</v>
       </c>
       <c r="G2256" s="23" t="s">
         <v>2849</v>
@@ -57986,45 +57988,45 @@
     </row>
     <row r="2257" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2257" s="24" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="B2257" s="20" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C2257" s="20" t="s">
-        <v>2117</v>
+        <v>232</v>
       </c>
       <c r="D2257" s="21">
-        <v>4301031305</v>
+        <v>4301051388</v>
       </c>
       <c r="E2257" s="20">
-        <v>4607091389845</v>
+        <v>4680115881211</v>
       </c>
       <c r="F2257" s="22" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="G2257" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2258" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2258" s="24" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="B2258" s="20" t="s">
-        <v>2180</v>
+        <v>2598</v>
       </c>
       <c r="C2258" s="20" t="s">
-        <v>2181</v>
+        <v>2599</v>
       </c>
       <c r="D2258" s="21">
-        <v>4301011859</v>
+        <v>4301051782</v>
       </c>
       <c r="E2258" s="20">
-        <v>4680115885608</v>
+        <v>4680115884618</v>
       </c>
       <c r="F2258" s="22" t="s">
-        <v>2182</v>
+        <v>2600</v>
       </c>
       <c r="G2258" s="23" t="s">
         <v>2849</v>
@@ -58032,45 +58034,45 @@
     </row>
     <row r="2259" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2259" s="24" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="B2259" s="20" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="C2259" s="20" t="s">
-        <v>312</v>
+        <v>2117</v>
       </c>
       <c r="D2259" s="21">
-        <v>4301031066</v>
+        <v>4301031305</v>
       </c>
       <c r="E2259" s="20">
-        <v>4607091383836</v>
+        <v>4607091389845</v>
       </c>
       <c r="F2259" s="22" t="s">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="G2259" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2260" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2260" s="24" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="B2260" s="20" t="s">
-        <v>1518</v>
+        <v>2180</v>
       </c>
       <c r="C2260" s="20" t="s">
-        <v>1519</v>
+        <v>2181</v>
       </c>
       <c r="D2260" s="21">
-        <v>4301051461</v>
+        <v>4301011859</v>
       </c>
       <c r="E2260" s="20">
-        <v>4680115883604</v>
+        <v>4680115885608</v>
       </c>
       <c r="F2260" s="22" t="s">
-        <v>1520</v>
+        <v>2182</v>
       </c>
       <c r="G2260" s="23" t="s">
         <v>2849</v>
@@ -58078,45 +58080,45 @@
     </row>
     <row r="2261" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2261" s="24" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="B2261" s="20" t="s">
-        <v>1478</v>
+        <v>311</v>
       </c>
       <c r="C2261" s="20" t="s">
-        <v>1479</v>
+        <v>312</v>
       </c>
       <c r="D2261" s="21">
-        <v>4301051864</v>
+        <v>4301031066</v>
       </c>
       <c r="E2261" s="20">
-        <v>4680115883567</v>
+        <v>4607091383836</v>
       </c>
       <c r="F2261" s="22" t="s">
-        <v>1480</v>
+        <v>314</v>
       </c>
       <c r="G2261" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2262" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2262" s="24" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="B2262" s="20" t="s">
-        <v>2127</v>
+        <v>1518</v>
       </c>
       <c r="C2262" s="20" t="s">
-        <v>2128</v>
+        <v>1519</v>
       </c>
       <c r="D2262" s="21">
-        <v>4301011868</v>
+        <v>4301051461</v>
       </c>
       <c r="E2262" s="20">
-        <v>4680115884861</v>
+        <v>4680115883604</v>
       </c>
       <c r="F2262" s="22" t="s">
-        <v>2129</v>
+        <v>1520</v>
       </c>
       <c r="G2262" s="23" t="s">
         <v>2849</v>
@@ -58124,114 +58126,114 @@
     </row>
     <row r="2263" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2263" s="24" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="B2263" s="20" t="s">
-        <v>366</v>
+        <v>1478</v>
       </c>
       <c r="C2263" s="20" t="s">
-        <v>2588</v>
+        <v>1479</v>
       </c>
       <c r="D2263" s="21">
-        <v>4301031362</v>
+        <v>4301051864</v>
       </c>
       <c r="E2263" s="20">
-        <v>4607091384338</v>
+        <v>4680115883567</v>
       </c>
       <c r="F2263" s="22" t="s">
-        <v>373</v>
+        <v>1480</v>
       </c>
       <c r="G2263" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2264" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2264" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2264" s="24" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="B2264" s="20" t="s">
-        <v>367</v>
+        <v>2127</v>
       </c>
       <c r="C2264" s="20" t="s">
-        <v>2650</v>
+        <v>2128</v>
       </c>
       <c r="D2264" s="21">
-        <v>4301031361</v>
+        <v>4301011868</v>
       </c>
       <c r="E2264" s="20">
-        <v>4607091389524</v>
+        <v>4680115884861</v>
       </c>
       <c r="F2264" s="22" t="s">
-        <v>374</v>
+        <v>2129</v>
       </c>
       <c r="G2264" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2265" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2265" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2265" s="24" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="B2265" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C2265" s="20" t="s">
-        <v>2273</v>
+        <v>2588</v>
       </c>
       <c r="D2265" s="21">
-        <v>4301031358</v>
+        <v>4301031362</v>
       </c>
       <c r="E2265" s="20">
-        <v>4607091389531</v>
+        <v>4607091384338</v>
       </c>
       <c r="F2265" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G2265" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2266" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2266" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2266" s="24" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="B2266" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2266" s="20" t="s">
-        <v>2247</v>
+        <v>2650</v>
       </c>
       <c r="D2266" s="21">
-        <v>4301031360</v>
+        <v>4301031361</v>
       </c>
       <c r="E2266" s="20">
-        <v>4607091384345</v>
+        <v>4607091389524</v>
       </c>
       <c r="F2266" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G2266" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="2267" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2267" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2267" s="24" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="B2267" s="20" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C2267" s="20" t="s">
-        <v>382</v>
+        <v>2273</v>
       </c>
       <c r="D2267" s="21">
-        <v>4301051284</v>
+        <v>4301031358</v>
       </c>
       <c r="E2267" s="20">
-        <v>4607091384352</v>
+        <v>4607091389531</v>
       </c>
       <c r="F2267" s="22" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G2267" s="23" t="s">
         <v>2849</v>
@@ -58239,22 +58241,22 @@
     </row>
     <row r="2268" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2268" s="24" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="B2268" s="20" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C2268" s="20" t="s">
-        <v>380</v>
+        <v>2247</v>
       </c>
       <c r="D2268" s="21">
-        <v>4301051431</v>
+        <v>4301031360</v>
       </c>
       <c r="E2268" s="20">
-        <v>4607091389654</v>
+        <v>4607091384345</v>
       </c>
       <c r="F2268" s="22" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G2268" s="23" t="s">
         <v>2849</v>
@@ -58262,22 +58264,22 @@
     </row>
     <row r="2269" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2269" s="24" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B2269" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C2269" s="3" t="s">
-        <v>3055</v>
-      </c>
-      <c r="D2269" s="4">
-        <v>4301012034</v>
-      </c>
-      <c r="E2269" s="3">
-        <v>4607091389982</v>
-      </c>
-      <c r="F2269" s="5" t="s">
-        <v>1043</v>
+        <v>2900</v>
+      </c>
+      <c r="B2269" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2269" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2269" s="21">
+        <v>4301051284</v>
+      </c>
+      <c r="E2269" s="20">
+        <v>4607091384352</v>
+      </c>
+      <c r="F2269" s="22" t="s">
+        <v>387</v>
       </c>
       <c r="G2269" s="23" t="s">
         <v>2849</v>
@@ -58285,22 +58287,22 @@
     </row>
     <row r="2270" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2270" s="24" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="B2270" s="20" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="C2270" s="20" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="D2270" s="21">
-        <v>4301020179</v>
+        <v>4301051431</v>
       </c>
       <c r="E2270" s="20">
-        <v>4607091384178</v>
+        <v>4607091389654</v>
       </c>
       <c r="F2270" s="22" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="G2270" s="23" t="s">
         <v>2849</v>
@@ -58308,91 +58310,91 @@
     </row>
     <row r="2271" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2271" s="24" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B2271" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2271" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2271" s="21">
-        <v>4301180001</v>
-      </c>
-      <c r="E2271" s="20">
-        <v>4680115880016</v>
-      </c>
-      <c r="F2271" s="22" t="s">
-        <v>291</v>
+        <v>2902</v>
+      </c>
+      <c r="B2271" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C2271" s="3" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D2271" s="4">
+        <v>4301012034</v>
+      </c>
+      <c r="E2271" s="3">
+        <v>4607091389982</v>
+      </c>
+      <c r="F2271" s="5" t="s">
+        <v>1043</v>
       </c>
       <c r="G2271" s="23" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="2272" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2272" s="25" t="s">
+      <c r="A2272" s="24" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B2272" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2272" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2272" s="21">
+        <v>4301020179</v>
+      </c>
+      <c r="E2272" s="20">
+        <v>4607091384178</v>
+      </c>
+      <c r="F2272" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2272" s="23" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2273" s="24" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B2273" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2273" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2273" s="21">
+        <v>4301180001</v>
+      </c>
+      <c r="E2273" s="20">
+        <v>4680115880016</v>
+      </c>
+      <c r="F2273" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2273" s="23" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2274" s="25" t="s">
         <v>2915</v>
       </c>
-      <c r="B2272" s="26" t="s">
+      <c r="B2274" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="C2272" s="26" t="s">
+      <c r="C2274" s="26" t="s">
         <v>2541</v>
       </c>
-      <c r="D2272" s="27">
+      <c r="D2274" s="27">
         <v>4301031403</v>
       </c>
-      <c r="E2272" s="26">
+      <c r="E2274" s="26">
         <v>4680115886094</v>
       </c>
-      <c r="F2272" s="28" t="s">
+      <c r="F2274" s="28" t="s">
         <v>2542</v>
-      </c>
-      <c r="G2272" s="29" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="2273" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2273" s="25" t="s">
-        <v>2916</v>
-      </c>
-      <c r="B2273" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2273" s="26" t="s">
-        <v>2654</v>
-      </c>
-      <c r="D2273" s="27">
-        <v>4301031402</v>
-      </c>
-      <c r="E2273" s="26">
-        <v>4680115886124</v>
-      </c>
-      <c r="F2273" s="28" t="s">
-        <v>2655</v>
-      </c>
-      <c r="G2273" s="29" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="2274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2274" s="25" t="s">
-        <v>2917</v>
-      </c>
-      <c r="B2274" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2274" s="26" t="s">
-        <v>2786</v>
-      </c>
-      <c r="D2274" s="27">
-        <v>4301020334</v>
-      </c>
-      <c r="E2274" s="26">
-        <v>4607091388930</v>
-      </c>
-      <c r="F2274" s="28" t="s">
-        <v>413</v>
       </c>
       <c r="G2274" s="29" t="s">
         <v>2968</v>
@@ -58400,22 +58402,22 @@
     </row>
     <row r="2275" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2275" s="25" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="B2275" s="26" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="C2275" s="26" t="s">
-        <v>331</v>
+        <v>2654</v>
       </c>
       <c r="D2275" s="27">
-        <v>4301020178</v>
+        <v>4301031402</v>
       </c>
       <c r="E2275" s="26">
-        <v>4607091383980</v>
+        <v>4680115886124</v>
       </c>
       <c r="F2275" s="28" t="s">
-        <v>334</v>
+        <v>2655</v>
       </c>
       <c r="G2275" s="29" t="s">
         <v>2968</v>
@@ -58423,91 +58425,91 @@
     </row>
     <row r="2276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2276" s="25" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B2276" s="26" t="s">
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="C2276" s="26" t="s">
-        <v>31</v>
+        <v>2786</v>
       </c>
       <c r="D2276" s="27">
-        <v>4301020298</v>
+        <v>4301020334</v>
       </c>
       <c r="E2276" s="26">
-        <v>4680115881440</v>
+        <v>4607091388930</v>
       </c>
       <c r="F2276" s="28" t="s">
-        <v>34</v>
+        <v>413</v>
       </c>
       <c r="G2276" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2277" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2277" s="25" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="B2277" s="26" t="s">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="C2277" s="26" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="D2277" s="27">
-        <v>4301011468</v>
+        <v>4301020178</v>
       </c>
       <c r="E2277" s="26">
-        <v>4680115881327</v>
+        <v>4607091383980</v>
       </c>
       <c r="F2277" s="28" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="G2277" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2278" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2278" s="25" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B2278" s="26" t="s">
-        <v>2640</v>
+        <v>30</v>
       </c>
       <c r="C2278" s="26" t="s">
-        <v>2641</v>
+        <v>31</v>
       </c>
       <c r="D2278" s="27">
-        <v>4301012030</v>
+        <v>4301020298</v>
       </c>
       <c r="E2278" s="26">
-        <v>4680115885882</v>
+        <v>4680115881440</v>
       </c>
       <c r="F2278" s="28" t="s">
-        <v>2642</v>
+        <v>34</v>
       </c>
       <c r="G2278" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2279" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2279" s="25" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="B2279" s="26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2279" s="26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D2279" s="27">
-        <v>4301011816</v>
+        <v>4301011468</v>
       </c>
       <c r="E2279" s="26">
-        <v>4680115881426</v>
+        <v>4680115881327</v>
       </c>
       <c r="F2279" s="28" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G2279" s="29" t="s">
         <v>2968</v>
@@ -58515,22 +58517,22 @@
     </row>
     <row r="2280" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2280" s="25" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B2280" s="26" t="s">
-        <v>2070</v>
+        <v>2640</v>
       </c>
       <c r="C2280" s="26" t="s">
-        <v>2071</v>
+        <v>2641</v>
       </c>
       <c r="D2280" s="27">
-        <v>4301011867</v>
+        <v>4301012030</v>
       </c>
       <c r="E2280" s="26">
-        <v>4680115884830</v>
+        <v>4680115885882</v>
       </c>
       <c r="F2280" s="28" t="s">
-        <v>2072</v>
+        <v>2642</v>
       </c>
       <c r="G2280" s="29" t="s">
         <v>2968</v>
@@ -58538,22 +58540,22 @@
     </row>
     <row r="2281" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2281" s="25" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="B2281" s="26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2281" s="26" t="s">
-        <v>2102</v>
+        <v>37</v>
       </c>
       <c r="D2281" s="27">
-        <v>4301011380</v>
+        <v>4301011816</v>
       </c>
       <c r="E2281" s="26">
-        <v>4607091385670</v>
+        <v>4680115881426</v>
       </c>
       <c r="F2281" s="28" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G2281" s="29" t="s">
         <v>2968</v>
@@ -58561,22 +58563,22 @@
     </row>
     <row r="2282" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2282" s="25" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B2282" s="26" t="s">
-        <v>401</v>
+        <v>2070</v>
       </c>
       <c r="C2282" s="26" t="s">
-        <v>1817</v>
+        <v>2071</v>
       </c>
       <c r="D2282" s="27">
-        <v>4301011795</v>
+        <v>4301011867</v>
       </c>
       <c r="E2282" s="26">
-        <v>4607091389067</v>
+        <v>4680115884830</v>
       </c>
       <c r="F2282" s="28" t="s">
-        <v>406</v>
+        <v>2072</v>
       </c>
       <c r="G2282" s="29" t="s">
         <v>2968</v>
@@ -58584,22 +58586,22 @@
     </row>
     <row r="2283" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2283" s="25" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="B2283" s="26" t="s">
-        <v>2224</v>
+        <v>42</v>
       </c>
       <c r="C2283" s="26" t="s">
-        <v>2225</v>
+        <v>2102</v>
       </c>
       <c r="D2283" s="27">
-        <v>4301011875</v>
+        <v>4301011380</v>
       </c>
       <c r="E2283" s="26">
-        <v>4680115884885</v>
+        <v>4607091385670</v>
       </c>
       <c r="F2283" s="28" t="s">
-        <v>2226</v>
+        <v>64</v>
       </c>
       <c r="G2283" s="29" t="s">
         <v>2968</v>
@@ -58607,22 +58609,22 @@
     </row>
     <row r="2284" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2284" s="25" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B2284" s="26" t="s">
-        <v>2122</v>
+        <v>401</v>
       </c>
       <c r="C2284" s="26" t="s">
-        <v>2123</v>
+        <v>1817</v>
       </c>
       <c r="D2284" s="27">
-        <v>4301011376</v>
+        <v>4301011795</v>
       </c>
       <c r="E2284" s="26">
-        <v>4680115885226</v>
+        <v>4607091389067</v>
       </c>
       <c r="F2284" s="28" t="s">
-        <v>2124</v>
+        <v>406</v>
       </c>
       <c r="G2284" s="29" t="s">
         <v>2968</v>
@@ -58630,22 +58632,22 @@
     </row>
     <row r="2285" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2285" s="25" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="B2285" s="26" t="s">
-        <v>402</v>
+        <v>2224</v>
       </c>
       <c r="C2285" s="26" t="s">
-        <v>2111</v>
+        <v>2225</v>
       </c>
       <c r="D2285" s="27">
-        <v>4301011961</v>
+        <v>4301011875</v>
       </c>
       <c r="E2285" s="26">
-        <v>4680115885271</v>
+        <v>4680115884885</v>
       </c>
       <c r="F2285" s="28" t="s">
-        <v>2112</v>
+        <v>2226</v>
       </c>
       <c r="G2285" s="29" t="s">
         <v>2968</v>
@@ -58653,22 +58655,22 @@
     </row>
     <row r="2286" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2286" s="25" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B2286" s="26" t="s">
-        <v>403</v>
+        <v>2122</v>
       </c>
       <c r="C2286" s="26" t="s">
-        <v>1814</v>
+        <v>2123</v>
       </c>
       <c r="D2286" s="27">
-        <v>4301011771</v>
+        <v>4301011376</v>
       </c>
       <c r="E2286" s="26">
-        <v>4607091389104</v>
+        <v>4680115885226</v>
       </c>
       <c r="F2286" s="28" t="s">
-        <v>1815</v>
+        <v>2124</v>
       </c>
       <c r="G2286" s="29" t="s">
         <v>2968</v>
@@ -58676,22 +58678,22 @@
     </row>
     <row r="2287" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2287" s="25" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="B2287" s="26" t="s">
-        <v>1952</v>
+        <v>402</v>
       </c>
       <c r="C2287" s="26" t="s">
-        <v>1953</v>
+        <v>2111</v>
       </c>
       <c r="D2287" s="27">
-        <v>4301011869</v>
+        <v>4301011961</v>
       </c>
       <c r="E2287" s="26">
-        <v>4680115884847</v>
+        <v>4680115885271</v>
       </c>
       <c r="F2287" s="28" t="s">
-        <v>1954</v>
+        <v>2112</v>
       </c>
       <c r="G2287" s="29" t="s">
         <v>2968</v>
@@ -58699,22 +58701,22 @@
     </row>
     <row r="2288" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2288" s="25" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="B2288" s="26" t="s">
-        <v>181</v>
+        <v>403</v>
       </c>
       <c r="C2288" s="26" t="s">
-        <v>182</v>
+        <v>1814</v>
       </c>
       <c r="D2288" s="27">
-        <v>4301031191</v>
+        <v>4301011771</v>
       </c>
       <c r="E2288" s="26">
-        <v>4680115880993</v>
+        <v>4607091389104</v>
       </c>
       <c r="F2288" s="28" t="s">
-        <v>202</v>
+        <v>1815</v>
       </c>
       <c r="G2288" s="29" t="s">
         <v>2968</v>
@@ -58722,22 +58724,22 @@
     </row>
     <row r="2289" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2289" s="25" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B2289" s="26" t="s">
-        <v>428</v>
+        <v>1952</v>
       </c>
       <c r="C2289" s="26" t="s">
-        <v>1247</v>
+        <v>1953</v>
       </c>
       <c r="D2289" s="27">
-        <v>4301011584</v>
+        <v>4301011869</v>
       </c>
       <c r="E2289" s="26">
-        <v>4640242180564</v>
+        <v>4680115884847</v>
       </c>
       <c r="F2289" s="28" t="s">
-        <v>1248</v>
+        <v>1954</v>
       </c>
       <c r="G2289" s="29" t="s">
         <v>2968</v>
@@ -58745,22 +58747,22 @@
     </row>
     <row r="2290" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2290" s="25" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B2290" s="26" t="s">
-        <v>1939</v>
+        <v>181</v>
       </c>
       <c r="C2290" s="26" t="s">
-        <v>1940</v>
+        <v>182</v>
       </c>
       <c r="D2290" s="27">
-        <v>4301011870</v>
+        <v>4301031191</v>
       </c>
       <c r="E2290" s="26">
-        <v>4680115884854</v>
+        <v>4680115880993</v>
       </c>
       <c r="F2290" s="28" t="s">
-        <v>1941</v>
+        <v>202</v>
       </c>
       <c r="G2290" s="29" t="s">
         <v>2968</v>
@@ -58768,45 +58770,45 @@
     </row>
     <row r="2291" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2291" s="25" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B2291" s="26" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C2291" s="26" t="s">
-        <v>2572</v>
+        <v>1247</v>
       </c>
       <c r="D2291" s="27">
-        <v>4301031349</v>
+        <v>4301011584</v>
       </c>
       <c r="E2291" s="26">
-        <v>4680115883116</v>
+        <v>4640242180564</v>
       </c>
       <c r="F2291" s="28" t="s">
-        <v>2573</v>
+        <v>1248</v>
       </c>
       <c r="G2291" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2292" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2292" s="25" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="B2292" s="26" t="s">
-        <v>417</v>
+        <v>1939</v>
       </c>
       <c r="C2292" s="26" t="s">
-        <v>2636</v>
+        <v>1940</v>
       </c>
       <c r="D2292" s="27">
-        <v>4301031350</v>
+        <v>4301011870</v>
       </c>
       <c r="E2292" s="26">
-        <v>4680115883093</v>
+        <v>4680115884854</v>
       </c>
       <c r="F2292" s="28" t="s">
-        <v>2637</v>
+        <v>1941</v>
       </c>
       <c r="G2292" s="29" t="s">
         <v>2968</v>
@@ -58814,45 +58816,45 @@
     </row>
     <row r="2293" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2293" s="25" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B2293" s="26" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="C2293" s="26" t="s">
-        <v>184</v>
+        <v>2572</v>
       </c>
       <c r="D2293" s="27">
-        <v>4301031204</v>
+        <v>4301031349</v>
       </c>
       <c r="E2293" s="26">
-        <v>4680115881761</v>
+        <v>4680115883116</v>
       </c>
       <c r="F2293" s="28" t="s">
-        <v>203</v>
+        <v>2573</v>
       </c>
       <c r="G2293" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2294" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2294" s="25" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="B2294" s="26" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="C2294" s="26" t="s">
-        <v>2552</v>
+        <v>2636</v>
       </c>
       <c r="D2294" s="27">
-        <v>4301031405</v>
+        <v>4301031350</v>
       </c>
       <c r="E2294" s="26">
-        <v>4680115886100</v>
+        <v>4680115883093</v>
       </c>
       <c r="F2294" s="28" t="s">
-        <v>2553</v>
+        <v>2637</v>
       </c>
       <c r="G2294" s="29" t="s">
         <v>2968</v>
@@ -58860,22 +58862,22 @@
     </row>
     <row r="2295" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2295" s="25" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="B2295" s="26" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="C2295" s="26" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="D2295" s="27">
-        <v>4301060406</v>
+        <v>4301031204</v>
       </c>
       <c r="E2295" s="26">
-        <v>4607091384482</v>
+        <v>4680115881761</v>
       </c>
       <c r="F2295" s="28" t="s">
-        <v>2646</v>
+        <v>203</v>
       </c>
       <c r="G2295" s="29" t="s">
         <v>2968</v>
@@ -58883,22 +58885,22 @@
     </row>
     <row r="2296" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2296" s="25" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="B2296" s="26" t="s">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="C2296" s="26" t="s">
-        <v>178</v>
+        <v>2552</v>
       </c>
       <c r="D2296" s="27">
-        <v>4301030878</v>
+        <v>4301031405</v>
       </c>
       <c r="E2296" s="26">
-        <v>4607091387193</v>
+        <v>4680115886100</v>
       </c>
       <c r="F2296" s="28" t="s">
-        <v>200</v>
+        <v>2553</v>
       </c>
       <c r="G2296" s="29" t="s">
         <v>2968</v>
@@ -58906,22 +58908,22 @@
     </row>
     <row r="2297" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2297" s="25" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="B2297" s="26" t="s">
-        <v>418</v>
+        <v>262</v>
       </c>
       <c r="C2297" s="26" t="s">
-        <v>2638</v>
+        <v>263</v>
       </c>
       <c r="D2297" s="27">
-        <v>4301031353</v>
+        <v>4301060406</v>
       </c>
       <c r="E2297" s="26">
-        <v>4680115883109</v>
+        <v>4607091384482</v>
       </c>
       <c r="F2297" s="28" t="s">
-        <v>2639</v>
+        <v>2646</v>
       </c>
       <c r="G2297" s="29" t="s">
         <v>2968</v>
@@ -58929,22 +58931,22 @@
     </row>
     <row r="2298" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2298" s="25" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="B2298" s="26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C2298" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D2298" s="27">
-        <v>4301031201</v>
+        <v>4301030878</v>
       </c>
       <c r="E2298" s="26">
-        <v>4680115881563</v>
+        <v>4607091387193</v>
       </c>
       <c r="F2298" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G2298" s="29" t="s">
         <v>2968</v>
@@ -58952,45 +58954,45 @@
     </row>
     <row r="2299" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2299" s="25" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="B2299" s="26" t="s">
-        <v>132</v>
+        <v>418</v>
       </c>
       <c r="C2299" s="26" t="s">
-        <v>2853</v>
+        <v>2638</v>
       </c>
       <c r="D2299" s="27">
-        <v>4301051724</v>
+        <v>4301031353</v>
       </c>
       <c r="E2299" s="26">
-        <v>4607091385168</v>
+        <v>4680115883109</v>
       </c>
       <c r="F2299" s="28" t="s">
-        <v>2854</v>
+        <v>2639</v>
       </c>
       <c r="G2299" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2300" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2300" s="25" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="B2300" s="26" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="C2300" s="26" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D2300" s="27">
-        <v>4301051100</v>
+        <v>4301031201</v>
       </c>
       <c r="E2300" s="26">
-        <v>4607091387766</v>
+        <v>4680115881563</v>
       </c>
       <c r="F2300" s="28" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="G2300" s="29" t="s">
         <v>2968</v>
@@ -58998,45 +59000,45 @@
     </row>
     <row r="2301" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2301" s="25" t="s">
-        <v>2944</v>
-      </c>
-      <c r="B2301" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="C2301" s="3" t="s">
-        <v>2978</v>
-      </c>
-      <c r="D2301" s="4">
-        <v>4301052046</v>
-      </c>
-      <c r="E2301" s="3">
-        <v>4640242180533</v>
-      </c>
-      <c r="F2301" s="5" t="s">
-        <v>2746</v>
+        <v>2942</v>
+      </c>
+      <c r="B2301" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2301" s="26" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D2301" s="27">
+        <v>4301051724</v>
+      </c>
+      <c r="E2301" s="26">
+        <v>4607091385168</v>
+      </c>
+      <c r="F2301" s="28" t="s">
+        <v>2854</v>
       </c>
       <c r="G2301" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2302" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2302" s="25" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="B2302" s="26" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="C2302" s="26" t="s">
-        <v>2855</v>
+        <v>222</v>
       </c>
       <c r="D2302" s="27">
-        <v>4301051712</v>
+        <v>4301051100</v>
       </c>
       <c r="E2302" s="26">
-        <v>4607091386967</v>
+        <v>4607091387766</v>
       </c>
       <c r="F2302" s="28" t="s">
-        <v>2856</v>
+        <v>246</v>
       </c>
       <c r="G2302" s="29" t="s">
         <v>2968</v>
@@ -59044,22 +59046,22 @@
     </row>
     <row r="2303" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2303" s="25" t="s">
-        <v>2946</v>
-      </c>
-      <c r="B2303" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2303" s="26" t="s">
-        <v>2510</v>
-      </c>
-      <c r="D2303" s="27">
-        <v>4301051899</v>
-      </c>
-      <c r="E2303" s="26">
-        <v>4607091384246</v>
-      </c>
-      <c r="F2303" s="28" t="s">
-        <v>2511</v>
+        <v>2944</v>
+      </c>
+      <c r="B2303" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C2303" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D2303" s="4">
+        <v>4301052046</v>
+      </c>
+      <c r="E2303" s="3">
+        <v>4640242180533</v>
+      </c>
+      <c r="F2303" s="5" t="s">
+        <v>2746</v>
       </c>
       <c r="G2303" s="29" t="s">
         <v>2968</v>
@@ -59067,22 +59069,22 @@
     </row>
     <row r="2304" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2304" s="25" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="B2304" s="26" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="C2304" s="26" t="s">
-        <v>226</v>
+        <v>2855</v>
       </c>
       <c r="D2304" s="27">
-        <v>4301051115</v>
+        <v>4301051712</v>
       </c>
       <c r="E2304" s="26">
-        <v>4607091387964</v>
+        <v>4607091386967</v>
       </c>
       <c r="F2304" s="28" t="s">
-        <v>248</v>
+        <v>2856</v>
       </c>
       <c r="G2304" s="29" t="s">
         <v>2968</v>
@@ -59090,22 +59092,22 @@
     </row>
     <row r="2305" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2305" s="25" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="B2305" s="26" t="s">
-        <v>211</v>
+        <v>353</v>
       </c>
       <c r="C2305" s="26" t="s">
-        <v>212</v>
+        <v>2510</v>
       </c>
       <c r="D2305" s="27">
-        <v>4301051408</v>
+        <v>4301051899</v>
       </c>
       <c r="E2305" s="26">
-        <v>4680115881594</v>
+        <v>4607091384246</v>
       </c>
       <c r="F2305" s="28" t="s">
-        <v>242</v>
+        <v>2511</v>
       </c>
       <c r="G2305" s="29" t="s">
         <v>2968</v>
@@ -59113,22 +59115,22 @@
     </row>
     <row r="2306" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2306" s="25" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B2306" s="26" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C2306" s="26" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D2306" s="27">
-        <v>4301051411</v>
+        <v>4301051115</v>
       </c>
       <c r="E2306" s="26">
-        <v>4680115881617</v>
+        <v>4607091387964</v>
       </c>
       <c r="F2306" s="28" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G2306" s="29" t="s">
         <v>2968</v>
@@ -59136,22 +59138,22 @@
     </row>
     <row r="2307" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2307" s="25" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="B2307" s="26" t="s">
-        <v>657</v>
+        <v>211</v>
       </c>
       <c r="C2307" s="26" t="s">
-        <v>658</v>
+        <v>212</v>
       </c>
       <c r="D2307" s="27">
-        <v>4301031220</v>
+        <v>4301051408</v>
       </c>
       <c r="E2307" s="26">
-        <v>4680115882669</v>
+        <v>4680115881594</v>
       </c>
       <c r="F2307" s="28" t="s">
-        <v>659</v>
+        <v>242</v>
       </c>
       <c r="G2307" s="29" t="s">
         <v>2968</v>
@@ -59159,22 +59161,22 @@
     </row>
     <row r="2308" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2308" s="25" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="B2308" s="26" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="C2308" s="26" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="D2308" s="27">
-        <v>4301031224</v>
+        <v>4301051411</v>
       </c>
       <c r="E2308" s="26">
-        <v>4680115882683</v>
+        <v>4680115881617</v>
       </c>
       <c r="F2308" s="28" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="G2308" s="29" t="s">
         <v>2968</v>
@@ -59182,22 +59184,22 @@
     </row>
     <row r="2309" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2309" s="25" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="B2309" s="26" t="s">
-        <v>175</v>
+        <v>657</v>
       </c>
       <c r="C2309" s="26" t="s">
-        <v>176</v>
+        <v>658</v>
       </c>
       <c r="D2309" s="27">
-        <v>4301031230</v>
+        <v>4301031220</v>
       </c>
       <c r="E2309" s="26">
-        <v>4680115882690</v>
+        <v>4680115882669</v>
       </c>
       <c r="F2309" s="28" t="s">
-        <v>199</v>
+        <v>659</v>
       </c>
       <c r="G2309" s="29" t="s">
         <v>2968</v>
@@ -59205,22 +59207,22 @@
     </row>
     <row r="2310" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2310" s="25" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="B2310" s="26" t="s">
-        <v>661</v>
+        <v>173</v>
       </c>
       <c r="C2310" s="26" t="s">
-        <v>662</v>
+        <v>174</v>
       </c>
       <c r="D2310" s="27">
-        <v>4301031221</v>
+        <v>4301031224</v>
       </c>
       <c r="E2310" s="26">
-        <v>4680115882676</v>
+        <v>4680115882683</v>
       </c>
       <c r="F2310" s="28" t="s">
-        <v>663</v>
+        <v>198</v>
       </c>
       <c r="G2310" s="29" t="s">
         <v>2968</v>
@@ -59228,22 +59230,22 @@
     </row>
     <row r="2311" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2311" s="25" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="B2311" s="26" t="s">
-        <v>2153</v>
+        <v>175</v>
       </c>
       <c r="C2311" s="26" t="s">
-        <v>2154</v>
+        <v>176</v>
       </c>
       <c r="D2311" s="27">
-        <v>4301011850</v>
+        <v>4301031230</v>
       </c>
       <c r="E2311" s="26">
-        <v>4680115885806</v>
+        <v>4680115882690</v>
       </c>
       <c r="F2311" s="28" t="s">
-        <v>2155</v>
+        <v>199</v>
       </c>
       <c r="G2311" s="29" t="s">
         <v>2968</v>
@@ -59251,45 +59253,45 @@
     </row>
     <row r="2312" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2312" s="25" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="B2312" s="26" t="s">
-        <v>2168</v>
+        <v>661</v>
       </c>
       <c r="C2312" s="26" t="s">
-        <v>2169</v>
+        <v>662</v>
       </c>
       <c r="D2312" s="27">
-        <v>4301011853</v>
+        <v>4301031221</v>
       </c>
       <c r="E2312" s="26">
-        <v>4680115885851</v>
+        <v>4680115882676</v>
       </c>
       <c r="F2312" s="28" t="s">
-        <v>2170</v>
+        <v>663</v>
       </c>
       <c r="G2312" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2313" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2313" s="25" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="B2313" s="26" t="s">
-        <v>32</v>
+        <v>2153</v>
       </c>
       <c r="C2313" s="26" t="s">
-        <v>33</v>
+        <v>2154</v>
       </c>
       <c r="D2313" s="27">
-        <v>4301020296</v>
+        <v>4301011850</v>
       </c>
       <c r="E2313" s="26">
-        <v>4680115881433</v>
+        <v>4680115885806</v>
       </c>
       <c r="F2313" s="28" t="s">
-        <v>35</v>
+        <v>2155</v>
       </c>
       <c r="G2313" s="29" t="s">
         <v>2968</v>
@@ -59297,45 +59299,45 @@
     </row>
     <row r="2314" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2314" s="25" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B2314" s="26" t="s">
-        <v>2466</v>
+        <v>2168</v>
       </c>
       <c r="C2314" s="26" t="s">
-        <v>2467</v>
+        <v>2169</v>
       </c>
       <c r="D2314" s="27">
-        <v>4301011443</v>
+        <v>4301011853</v>
       </c>
       <c r="E2314" s="26">
-        <v>4680115881303</v>
+        <v>4680115885851</v>
       </c>
       <c r="F2314" s="28" t="s">
-        <v>73</v>
+        <v>2170</v>
       </c>
       <c r="G2314" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2315" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2315" s="25" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="B2315" s="26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2315" s="26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2315" s="27">
-        <v>4301011801</v>
+        <v>4301020296</v>
       </c>
       <c r="E2315" s="26">
-        <v>4680115881419</v>
+        <v>4680115881433</v>
       </c>
       <c r="F2315" s="28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G2315" s="29" t="s">
         <v>2968</v>
@@ -59343,137 +59345,137 @@
     </row>
     <row r="2316" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2316" s="25" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="B2316" s="26" t="s">
-        <v>1478</v>
+        <v>2466</v>
       </c>
       <c r="C2316" s="26" t="s">
-        <v>1479</v>
+        <v>2467</v>
       </c>
       <c r="D2316" s="27">
-        <v>4301051864</v>
+        <v>4301011443</v>
       </c>
       <c r="E2316" s="26">
-        <v>4680115883567</v>
+        <v>4680115881303</v>
       </c>
       <c r="F2316" s="28" t="s">
-        <v>1480</v>
+        <v>73</v>
       </c>
       <c r="G2316" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2317" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2317" s="25" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="B2317" s="26" t="s">
-        <v>1518</v>
+        <v>38</v>
       </c>
       <c r="C2317" s="26" t="s">
-        <v>1519</v>
+        <v>39</v>
       </c>
       <c r="D2317" s="27">
-        <v>4301051461</v>
+        <v>4301011801</v>
       </c>
       <c r="E2317" s="26">
-        <v>4680115883604</v>
+        <v>4680115881419</v>
       </c>
       <c r="F2317" s="28" t="s">
-        <v>1520</v>
+        <v>41</v>
       </c>
       <c r="G2317" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2318" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2318" s="25" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="B2318" s="26" t="s">
-        <v>134</v>
+        <v>1478</v>
       </c>
       <c r="C2318" s="26" t="s">
-        <v>2787</v>
+        <v>1479</v>
       </c>
       <c r="D2318" s="27">
-        <v>4301051721</v>
+        <v>4301051864</v>
       </c>
       <c r="E2318" s="26">
-        <v>4607091385748</v>
+        <v>4680115883567</v>
       </c>
       <c r="F2318" s="28" t="s">
-        <v>2788</v>
+        <v>1480</v>
       </c>
       <c r="G2318" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2319" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2319" s="25" t="s">
-        <v>2962</v>
-      </c>
-      <c r="B2319" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2319" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2319" s="4">
-        <v>4301051407</v>
-      </c>
-      <c r="E2319" s="3">
-        <v>4680115882195</v>
-      </c>
-      <c r="F2319" s="5" t="s">
-        <v>3063</v>
+        <v>2960</v>
+      </c>
+      <c r="B2319" s="26" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C2319" s="26" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D2319" s="27">
+        <v>4301051461</v>
+      </c>
+      <c r="E2319" s="26">
+        <v>4680115883604</v>
+      </c>
+      <c r="F2319" s="28" t="s">
+        <v>1520</v>
       </c>
       <c r="G2319" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2320" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2320" s="25" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="B2320" s="26" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="C2320" s="26" t="s">
-        <v>232</v>
+        <v>2787</v>
       </c>
       <c r="D2320" s="27">
-        <v>4301051388</v>
+        <v>4301051721</v>
       </c>
       <c r="E2320" s="26">
-        <v>4680115881211</v>
+        <v>4607091385748</v>
       </c>
       <c r="F2320" s="28" t="s">
-        <v>252</v>
+        <v>2788</v>
       </c>
       <c r="G2320" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2321" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2321" s="25" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="B2321" s="3" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="C2321" s="3" t="s">
-        <v>3058</v>
+        <v>214</v>
       </c>
       <c r="D2321" s="4">
-        <v>4301051718</v>
+        <v>4301051407</v>
       </c>
       <c r="E2321" s="3">
-        <v>4607091385731</v>
+        <v>4680115882195</v>
       </c>
       <c r="F2321" s="5" t="s">
-        <v>3059</v>
+        <v>3063</v>
       </c>
       <c r="G2321" s="29" t="s">
         <v>2968</v>
@@ -59481,45 +59483,45 @@
     </row>
     <row r="2322" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2322" s="25" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="B2322" s="26" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C2322" s="26" t="s">
-        <v>2061</v>
+        <v>232</v>
       </c>
       <c r="D2322" s="27">
-        <v>4301051666</v>
+        <v>4301051388</v>
       </c>
       <c r="E2322" s="26">
-        <v>4680115880092</v>
+        <v>4680115881211</v>
       </c>
       <c r="F2322" s="28" t="s">
-        <v>2062</v>
+        <v>252</v>
       </c>
       <c r="G2322" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="2323" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2323" s="25" t="s">
-        <v>2966</v>
-      </c>
-      <c r="B2323" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2323" s="26" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D2323" s="27">
-        <v>4301051795</v>
-      </c>
-      <c r="E2323" s="26">
-        <v>4680115881228</v>
-      </c>
-      <c r="F2323" s="28" t="s">
-        <v>1167</v>
+        <v>2964</v>
+      </c>
+      <c r="B2323" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2323" s="3" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D2323" s="4">
+        <v>4301051718</v>
+      </c>
+      <c r="E2323" s="3">
+        <v>4607091385731</v>
+      </c>
+      <c r="F2323" s="5" t="s">
+        <v>3059</v>
       </c>
       <c r="G2323" s="29" t="s">
         <v>2968</v>
@@ -59527,91 +59529,91 @@
     </row>
     <row r="2324" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2324" s="25" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="B2324" s="26" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C2324" s="26" t="s">
-        <v>218</v>
+        <v>2061</v>
       </c>
       <c r="D2324" s="27">
-        <v>4301051410</v>
+        <v>4301051666</v>
       </c>
       <c r="E2324" s="26">
-        <v>4680115882164</v>
+        <v>4680115880092</v>
       </c>
       <c r="F2324" s="28" t="s">
-        <v>244</v>
+        <v>2062</v>
       </c>
       <c r="G2324" s="29" t="s">
         <v>2968</v>
       </c>
     </row>
     <row r="2325" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2325" s="35" t="s">
+      <c r="A2325" s="25" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B2325" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2325" s="26" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D2325" s="27">
+        <v>4301051795</v>
+      </c>
+      <c r="E2325" s="26">
+        <v>4680115881228</v>
+      </c>
+      <c r="F2325" s="28" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G2325" s="29" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2326" s="25" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B2326" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2326" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2326" s="27">
+        <v>4301051410</v>
+      </c>
+      <c r="E2326" s="26">
+        <v>4680115882164</v>
+      </c>
+      <c r="F2326" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2326" s="29" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2327" s="35" t="s">
         <v>3129</v>
       </c>
-      <c r="B2325" s="36" t="s">
+      <c r="B2327" s="36" t="s">
         <v>2505</v>
       </c>
-      <c r="C2325" s="36" t="s">
+      <c r="C2327" s="36" t="s">
         <v>3119</v>
       </c>
-      <c r="D2325" s="37">
+      <c r="D2327" s="37">
         <v>4301012215</v>
       </c>
-      <c r="E2325" s="36">
+      <c r="E2327" s="36">
         <v>4680115887046</v>
       </c>
-      <c r="F2325" s="38" t="s">
+      <c r="F2327" s="38" t="s">
         <v>3120</v>
-      </c>
-      <c r="G2325" s="39" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="2326" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2326" s="35" t="s">
-        <v>3130</v>
-      </c>
-      <c r="B2326" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2326" s="36" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D2326" s="37">
-        <v>4301011771</v>
-      </c>
-      <c r="E2326" s="36">
-        <v>4607091389104</v>
-      </c>
-      <c r="F2326" s="38" t="s">
-        <v>1815</v>
-      </c>
-      <c r="G2326" s="39" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="2327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2327" s="35" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B2327" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2327" s="36" t="s">
-        <v>2743</v>
-      </c>
-      <c r="D2327" s="37">
-        <v>4301011514</v>
-      </c>
-      <c r="E2327" s="36">
-        <v>4680115882133</v>
-      </c>
-      <c r="F2327" s="38" t="s">
-        <v>1482</v>
       </c>
       <c r="G2327" s="39" t="s">
         <v>3138</v>
@@ -59619,68 +59621,68 @@
     </row>
     <row r="2328" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2328" s="35" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="B2328" s="36" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="C2328" s="36" t="s">
-        <v>2102</v>
+        <v>1814</v>
       </c>
       <c r="D2328" s="37">
-        <v>4301011380</v>
+        <v>4301011771</v>
       </c>
       <c r="E2328" s="36">
-        <v>4607091385670</v>
+        <v>4607091389104</v>
       </c>
       <c r="F2328" s="38" t="s">
-        <v>64</v>
+        <v>1815</v>
       </c>
       <c r="G2328" s="39" t="s">
         <v>3138</v>
       </c>
     </row>
-    <row r="2329" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2329" s="35" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="B2329" s="36" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C2329" s="36" t="s">
-        <v>39</v>
+        <v>2743</v>
       </c>
       <c r="D2329" s="37">
-        <v>4301011801</v>
+        <v>4301011514</v>
       </c>
       <c r="E2329" s="36">
-        <v>4680115881419</v>
+        <v>4680115882133</v>
       </c>
       <c r="F2329" s="38" t="s">
-        <v>41</v>
+        <v>1482</v>
       </c>
       <c r="G2329" s="39" t="s">
         <v>3138</v>
       </c>
     </row>
-    <row r="2330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2330" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2330" s="35" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="B2330" s="36" t="s">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="C2330" s="36" t="s">
-        <v>2786</v>
+        <v>2102</v>
       </c>
       <c r="D2330" s="37">
-        <v>4301020334</v>
+        <v>4301011380</v>
       </c>
       <c r="E2330" s="36">
-        <v>4607091388930</v>
+        <v>4607091385670</v>
       </c>
       <c r="F2330" s="38" t="s">
-        <v>413</v>
+        <v>64</v>
       </c>
       <c r="G2330" s="39" t="s">
         <v>3138</v>
@@ -59688,45 +59690,45 @@
     </row>
     <row r="2331" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2331" s="35" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="B2331" s="36" t="s">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="C2331" s="36" t="s">
-        <v>2541</v>
+        <v>39</v>
       </c>
       <c r="D2331" s="37">
-        <v>4301031403</v>
+        <v>4301011801</v>
       </c>
       <c r="E2331" s="36">
-        <v>4680115886094</v>
+        <v>4680115881419</v>
       </c>
       <c r="F2331" s="38" t="s">
-        <v>2542</v>
+        <v>41</v>
       </c>
       <c r="G2331" s="39" t="s">
         <v>3138</v>
       </c>
     </row>
-    <row r="2332" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2332" s="35" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="B2332" s="36" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C2332" s="36" t="s">
-        <v>2572</v>
+        <v>2786</v>
       </c>
       <c r="D2332" s="37">
-        <v>4301031349</v>
+        <v>4301020334</v>
       </c>
       <c r="E2332" s="36">
-        <v>4680115883116</v>
+        <v>4607091388930</v>
       </c>
       <c r="F2332" s="38" t="s">
-        <v>2573</v>
+        <v>413</v>
       </c>
       <c r="G2332" s="39" t="s">
         <v>3138</v>
@@ -59734,52 +59736,98 @@
     </row>
     <row r="2333" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2333" s="35" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="B2333" s="36" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="C2333" s="36" t="s">
-        <v>2638</v>
+        <v>2541</v>
       </c>
       <c r="D2333" s="37">
-        <v>4301031353</v>
+        <v>4301031403</v>
       </c>
       <c r="E2333" s="36">
-        <v>4680115883109</v>
+        <v>4680115886094</v>
       </c>
       <c r="F2333" s="38" t="s">
-        <v>2639</v>
+        <v>2542</v>
       </c>
       <c r="G2333" s="39" t="s">
         <v>3138</v>
       </c>
     </row>
-    <row r="2334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2334" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2334" s="35" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="B2334" s="36" t="s">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="C2334" s="36" t="s">
-        <v>2787</v>
+        <v>2572</v>
       </c>
       <c r="D2334" s="37">
-        <v>4301051721</v>
+        <v>4301031349</v>
       </c>
       <c r="E2334" s="36">
-        <v>4607091385748</v>
+        <v>4680115883116</v>
       </c>
       <c r="F2334" s="38" t="s">
-        <v>2788</v>
+        <v>2573</v>
       </c>
       <c r="G2334" s="39" t="s">
         <v>3138</v>
       </c>
     </row>
+    <row r="2335" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2335" s="35" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B2335" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2335" s="36" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D2335" s="37">
+        <v>4301031353</v>
+      </c>
+      <c r="E2335" s="36">
+        <v>4680115883109</v>
+      </c>
+      <c r="F2335" s="38" t="s">
+        <v>2639</v>
+      </c>
+      <c r="G2335" s="39" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2336" s="35" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B2336" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2336" s="36" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D2336" s="37">
+        <v>4301051721</v>
+      </c>
+      <c r="E2336" s="36">
+        <v>4607091385748</v>
+      </c>
+      <c r="F2336" s="38" t="s">
+        <v>2788</v>
+      </c>
+      <c r="G2336" s="39" t="s">
+        <v>3138</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G2334" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
+  <autoFilter ref="A1:G2336" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B678F38-9F5F-4D7D-A527-4D9BCB6F8DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25022A26-ACE4-4BEC-9208-75F4689521E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9656" uniqueCount="3196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9776" uniqueCount="3224">
   <si>
     <t>SU002447</t>
   </si>
@@ -9622,6 +9622,90 @@
   </si>
   <si>
     <t>Филедворская со шпиком по-стародворскип/а(Старод)</t>
+  </si>
+  <si>
+    <t>Колбаса сырокопченая Баварская ТМ Стародворье б/о т/п ф/в 0,17 кг АК</t>
+  </si>
+  <si>
+    <t>Колбаса сырокопченая Швейцарская ТМ Стародворье фиброуз терм/п ф/в 0,17 кг АК</t>
+  </si>
+  <si>
+    <t>Колбаса варено-копченая Балыковая ТМ Стародворские колбасы ТС Вязанка фиброуз в/у вес НД2 СК1</t>
+  </si>
+  <si>
+    <t>Колбаса варено-копченая Сервелат Кремлевский ТМ Стародворье фиброуз в/у ф/в 0,35 кг срез УВС СК2</t>
+  </si>
+  <si>
+    <t>Колбаса варено-копченая Сочинка по-европейски с сочной грудинкой ТМ Стародворье фиброуз в/у вес СК2</t>
+  </si>
+  <si>
+    <t>Колбаса полукопченая Аль-Ислами ТМ Вязанка Халяль фиброуз в/у ф/в 0,35 кг АК</t>
+  </si>
+  <si>
+    <t>P003442</t>
+  </si>
+  <si>
+    <t>Колбаса полукопченая Сочинка рубленая с сочным окороком ТМ Стародворье фиброуз в/у ф/в 0,3 кг срез СК2</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Молочная Дугушка ТМ Стародворье ТС Дугушка полиамид ф/в 0,4 кг СК1</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Молочная Традиционная ТМ Стародворье полиамид ф/в 0,4 кг СК1</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Мусульманская Халяль ТМ Вязанка вектор ф/в 0,4 кг АК</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Стародворская Традиционная ТМ Стародворье полиамид ф/в 0,4 кг СК1</t>
+  </si>
+  <si>
+    <t>Ветчина Сливушка с индейкой ТМ Вязанка полиамид 0,3 кг УВС СК1</t>
+  </si>
+  <si>
+    <t>Ветчина Филейская ТМ Вязанка ТС Столичная полиамид ф/в 0,45 кг НД СК3</t>
+  </si>
+  <si>
+    <t>Сосиски Восточные халяль ТМ Вязанка полиамид в/у ф/в 0,33 кг АК</t>
+  </si>
+  <si>
+    <t>P003440</t>
+  </si>
+  <si>
+    <t>Сосиски Восточные халяль ТМ Вязанка полиамид в/у ф/в 0,33 кг НД Узбекистан АК</t>
+  </si>
+  <si>
+    <t>Сосиски Сочинки по-баварски с сыром ТМ Стародворье полиамид мгс ф/в 0,4 кг УВС СК4</t>
+  </si>
+  <si>
+    <t>Бекон Вяленый выдержанный ТМ Стародворье в/у ф/в 0,055 кг нарезка Топ-ЛКК, Дистр МЗР</t>
+  </si>
+  <si>
+    <t>Бекон сырокопченый ТМ Стародворье в/у ф/в 0,12 кг нарезка УМК Топ-ЛКК, Дистр МЗР</t>
+  </si>
+  <si>
+    <t>Грудинка копчено-вареная ТМ Стародворье в/у ф/в 0,12 кг нарезка УМК Топ-ЛКК, Дистр МЗР</t>
+  </si>
+  <si>
+    <t>Колбаса сырокопченая Мраморная ТМ Стародворье в/у ф/в 0,07 кг нарезка Топ-ЛКК, Дистр МЗР</t>
+  </si>
+  <si>
+    <t>Корейка Вяленая выдержанная ТМ Стародворье в/у ф/в 0,05 кг нарезка Топ-ЛКК, Дистр МЗР</t>
+  </si>
+  <si>
+    <t>Окорок Прошутто сыровяленый выдержанный ТМ Стародворье в/у ф/в 0,055 кг нарезка Топ-ЛКК, Дистр МЗР</t>
+  </si>
+  <si>
+    <t>Окорок Хамон Вяленый выдержанный ТМ Стародворье в/у ф/в 0,055 кг нарезка Топ-ЛКК, Дистр МЗР</t>
+  </si>
+  <si>
+    <t>Паштет Любительский ТМ Стародворье ламистер ф/в 0,1 кг РК</t>
+  </si>
+  <si>
+    <t>Паштет печеночный с морковью ТМ Стародворье ламистер ф/в 0,1 кг НКК, Топ-ЛКК, Дистр РК</t>
+  </si>
+  <si>
+    <t>Коныгин</t>
   </si>
 </sst>
 </file>
@@ -9681,7 +9765,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9715,6 +9799,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9788,7 +9878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9887,6 +9977,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10173,11 +10276,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G2340"/>
+  <dimension ref="A1:G2364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59922,6 +60025,558 @@
         <v>3138</v>
       </c>
     </row>
+    <row r="2341" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2341" s="40" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B2341" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2341" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2341" s="42">
+        <v>4301032015</v>
+      </c>
+      <c r="E2341" s="41">
+        <v>4607091383102</v>
+      </c>
+      <c r="F2341" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2341" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2342" s="40" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B2342" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2342" s="41" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D2342" s="42">
+        <v>4301030233</v>
+      </c>
+      <c r="E2342" s="41">
+        <v>4607091388404</v>
+      </c>
+      <c r="F2342" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2342" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2343" s="40" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B2343" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2343" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2343" s="42">
+        <v>4301030895</v>
+      </c>
+      <c r="E2343" s="41">
+        <v>4607091387667</v>
+      </c>
+      <c r="F2343" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2343" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2344" s="40" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B2344" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2344" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2344" s="42">
+        <v>4301031152</v>
+      </c>
+      <c r="E2344" s="41">
+        <v>4607091387285</v>
+      </c>
+      <c r="F2344" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2344" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2345" s="40" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B2345" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2345" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2345" s="42">
+        <v>4301031224</v>
+      </c>
+      <c r="E2345" s="41">
+        <v>4680115882683</v>
+      </c>
+      <c r="F2345" s="43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G2345" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2346" s="40" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B2346" s="41" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C2346" s="41" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D2346" s="42">
+        <v>4301031235</v>
+      </c>
+      <c r="E2346" s="41">
+        <v>4680115883444</v>
+      </c>
+      <c r="F2346" s="43" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G2346" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2347" s="40" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B2347" s="41" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C2347" s="41" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D2347" s="42">
+        <v>4301031225</v>
+      </c>
+      <c r="E2347" s="41">
+        <v>4680115884021</v>
+      </c>
+      <c r="F2347" s="43" t="s">
+        <v>2414</v>
+      </c>
+      <c r="G2347" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2348" s="40" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B2348" s="41" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C2348" s="41" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D2348" s="42">
+        <v>4301012050</v>
+      </c>
+      <c r="E2348" s="41">
+        <v>4680115885479</v>
+      </c>
+      <c r="F2348" s="43" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G2348" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2349" s="40" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B2349" s="41" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C2349" s="41" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D2349" s="42">
+        <v>4301011857</v>
+      </c>
+      <c r="E2349" s="41">
+        <v>4680115885622</v>
+      </c>
+      <c r="F2349" s="43" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G2349" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2350" s="40" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B2350" s="41" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C2350" s="41" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D2350" s="42">
+        <v>4301011562</v>
+      </c>
+      <c r="E2350" s="41">
+        <v>4680115882577</v>
+      </c>
+      <c r="F2350" s="43" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2350" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2351" s="40" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B2351" s="41" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C2351" s="41" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D2351" s="42">
+        <v>4301011859</v>
+      </c>
+      <c r="E2351" s="41">
+        <v>4680115885608</v>
+      </c>
+      <c r="F2351" s="43" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G2351" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2352" s="40" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B2352" s="41" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C2352" s="41" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2352" s="42">
+        <v>4301020346</v>
+      </c>
+      <c r="E2352" s="41">
+        <v>4680115882775</v>
+      </c>
+      <c r="F2352" s="43" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G2352" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2353" s="40" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B2353" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2353" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2353" s="42">
+        <v>4301020296</v>
+      </c>
+      <c r="E2353" s="41">
+        <v>4680115881433</v>
+      </c>
+      <c r="F2353" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2353" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2354" s="40" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B2354" s="41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C2354" s="41" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D2354" s="42">
+        <v>4301051477</v>
+      </c>
+      <c r="E2354" s="41">
+        <v>4680115882584</v>
+      </c>
+      <c r="F2354" s="43" t="s">
+        <v>3212</v>
+      </c>
+      <c r="G2354" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2355" s="40" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B2355" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2355" s="41" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D2355" s="42">
+        <v>4301051795</v>
+      </c>
+      <c r="E2355" s="41">
+        <v>4680115881228</v>
+      </c>
+      <c r="F2355" s="43" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G2355" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2356" s="40" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B2356" s="41" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C2356" s="41" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D2356" s="42">
+        <v>4301041004</v>
+      </c>
+      <c r="E2356" s="41">
+        <v>4680115886704</v>
+      </c>
+      <c r="F2356" s="43" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G2356" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2357" s="40" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B2357" s="41" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C2357" s="41" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D2357" s="42">
+        <v>4301041008</v>
+      </c>
+      <c r="E2357" s="41">
+        <v>4680115886681</v>
+      </c>
+      <c r="F2357" s="43" t="s">
+        <v>3185</v>
+      </c>
+      <c r="G2357" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2358" s="40" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B2358" s="41" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C2358" s="41" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D2358" s="42">
+        <v>4301040362</v>
+      </c>
+      <c r="E2358" s="41">
+        <v>4680115886803</v>
+      </c>
+      <c r="F2358" s="43" t="s">
+        <v>3170</v>
+      </c>
+      <c r="G2358" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2359" s="40" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B2359" s="41" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2359" s="41" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D2359" s="42">
+        <v>4301032053</v>
+      </c>
+      <c r="E2359" s="41">
+        <v>4680115886780</v>
+      </c>
+      <c r="F2359" s="43" t="s">
+        <v>3189</v>
+      </c>
+      <c r="G2359" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2360" s="40" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B2360" s="41" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C2360" s="41" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D2360" s="42">
+        <v>4301041007</v>
+      </c>
+      <c r="E2360" s="41">
+        <v>4680115886735</v>
+      </c>
+      <c r="F2360" s="43" t="s">
+        <v>2994</v>
+      </c>
+      <c r="G2360" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2361" s="40" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B2361" s="41" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C2361" s="41" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D2361" s="42">
+        <v>4301041006</v>
+      </c>
+      <c r="E2361" s="41">
+        <v>4680115886728</v>
+      </c>
+      <c r="F2361" s="43" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G2361" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2362" s="40" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B2362" s="41" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C2362" s="41" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D2362" s="42">
+        <v>4301041005</v>
+      </c>
+      <c r="E2362" s="41">
+        <v>4680115886711</v>
+      </c>
+      <c r="F2362" s="43" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G2362" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2363" s="40" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B2363" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2363" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2363" s="42">
+        <v>4301180007</v>
+      </c>
+      <c r="E2363" s="41">
+        <v>4680115881808</v>
+      </c>
+      <c r="F2363" s="43" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G2363" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2364" s="40" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B2364" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2364" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2364" s="42">
+        <v>4301180006</v>
+      </c>
+      <c r="E2364" s="41">
+        <v>4680115881822</v>
+      </c>
+      <c r="F2364" s="43" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G2364" s="44" t="s">
+        <v>3223</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G2340" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/WholesaleCustomers/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\WholesaleCustomers\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25022A26-ACE4-4BEC-9208-75F4689521E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF82BB1-6D9C-49FA-8D48-7C7D0E64DD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$2364</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -10280,7 +10280,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60578,7 +60578,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2340" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
+  <autoFilter ref="A1:G2364" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>
